--- a/INPUT/DATA_IN_MA1.xlsx
+++ b/INPUT/DATA_IN_MA1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jim/Documents/Work/Facette_36Cl/Facet_36Cl_CREp/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAE74FA-5131-5A42-B72B-0EBE56E7447A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24427CD6-A536-EC49-9A85-1FDB6B72ADA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-34760" yWindow="2440" windowWidth="25600" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37560" yWindow="-4980" windowWidth="25600" windowHeight="10520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
-    <sheet name="Site" sheetId="2" r:id="rId2"/>
+    <sheet name="Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179021" iterateDelta="1E-4"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="130">
   <si>
     <t>sample name</t>
   </si>
@@ -46,18 +46,12 @@
     <t>altitude (masl)</t>
   </si>
   <si>
-    <t>shielding</t>
-  </si>
-  <si>
     <t>density (g/cm3)</t>
   </si>
   <si>
     <t>tickness (cm)</t>
   </si>
   <si>
-    <t>erosion (cm/a)</t>
-  </si>
-  <si>
     <t>36Cl conc (at/g)</t>
   </si>
   <si>
@@ -151,12 +145,6 @@
     <t>Cl_ppm_bulk</t>
   </si>
   <si>
-    <t>Cr_ppm_bulk</t>
-  </si>
-  <si>
-    <t>Co_ppm_bulk</t>
-  </si>
-  <si>
     <t>Sm_ppm_bulk</t>
   </si>
   <si>
@@ -185,12 +173,6 @@
   </si>
   <si>
     <t>± TiO2_%_target</t>
-  </si>
-  <si>
-    <t>± Th_ppm_bulk</t>
-  </si>
-  <si>
-    <t>± U_ppm_bulk</t>
   </si>
   <si>
     <t>± Cl_ppm_target</t>
@@ -580,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,9 +624,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1054,10 +1033,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CE58"/>
+  <dimension ref="A1:BY58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AL2" sqref="AL2:AL7"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
+      <selection activeCell="AZ4" sqref="AZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,32 +1045,29 @@
     <col min="2" max="4" width="13.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" style="2" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="3" customWidth="1"/>
-    <col min="7" max="11" width="13.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="3" customWidth="1"/>
-    <col min="15" max="16" width="13.83203125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="13.83203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.83203125" style="3" customWidth="1"/>
-    <col min="19" max="21" width="13.83203125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="13.83203125" style="3" customWidth="1"/>
-    <col min="23" max="24" width="13.83203125" style="2" customWidth="1"/>
+    <col min="7" max="9" width="13.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="13.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="3" customWidth="1"/>
+    <col min="13" max="14" width="13.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" style="3" customWidth="1"/>
+    <col min="17" max="19" width="13.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.83203125" style="3" customWidth="1"/>
+    <col min="21" max="22" width="13.83203125" style="2" customWidth="1"/>
+    <col min="23" max="23" width="13.83203125" style="3" customWidth="1"/>
+    <col min="24" max="24" width="13.83203125" style="2" customWidth="1"/>
     <col min="25" max="25" width="13.83203125" style="3" customWidth="1"/>
-    <col min="26" max="26" width="13.83203125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="13.83203125" style="3" customWidth="1"/>
-    <col min="28" max="31" width="13.83203125" style="6" customWidth="1"/>
-    <col min="32" max="45" width="13.83203125" style="7" customWidth="1"/>
-    <col min="46" max="48" width="13.83203125" style="10" customWidth="1"/>
-    <col min="49" max="50" width="13.83203125" style="8" customWidth="1"/>
-    <col min="51" max="53" width="13.83203125" style="10" customWidth="1"/>
-    <col min="54" max="54" width="13.83203125" style="9" customWidth="1"/>
-    <col min="55" max="55" width="13.83203125" style="10" customWidth="1"/>
-    <col min="56" max="56" width="13.83203125" style="9" customWidth="1"/>
-    <col min="57" max="57" width="10.83203125" style="1"/>
-    <col min="58" max="83" width="10.83203125" style="22"/>
+    <col min="26" max="29" width="13.83203125" style="6" customWidth="1"/>
+    <col min="30" max="43" width="13.83203125" style="7" customWidth="1"/>
+    <col min="44" max="46" width="13.83203125" style="10" customWidth="1"/>
+    <col min="47" max="47" width="13.83203125" style="8" customWidth="1"/>
+    <col min="48" max="49" width="13.83203125" style="10" customWidth="1"/>
+    <col min="50" max="51" width="13.83203125" style="9" customWidth="1"/>
+    <col min="52" max="77" width="10.83203125" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" s="24" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:77" s="23" customFormat="1" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -1105,13 +1081,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>4</v>
@@ -1120,75 +1096,75 @@
         <v>5</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="M1" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="N1" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="13" t="s">
+      <c r="O1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>47</v>
       </c>
       <c r="T1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="V1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="W1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="W1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="X1" s="11" t="s">
+      <c r="X1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Y1" s="11" t="s">
+      <c r="Z1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="Z1" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>50</v>
+      <c r="AB1" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="AC1" s="13" t="s">
         <v>20</v>
       </c>
       <c r="AD1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="39" t="s">
         <v>22</v>
       </c>
       <c r="AF1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="AG1" s="40" t="s">
+      <c r="AG1" s="13" t="s">
         <v>24</v>
       </c>
       <c r="AH1" s="13" t="s">
@@ -1219,19 +1195,19 @@
         <v>33</v>
       </c>
       <c r="AQ1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AS1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="AS1" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AT1" s="13" t="s">
+      <c r="AU1" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="AU1" s="13" t="s">
-        <v>21</v>
       </c>
       <c r="AV1" s="13" t="s">
         <v>37</v>
@@ -1239,1447 +1215,1297 @@
       <c r="AW1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="AX1" s="23" t="s">
+      <c r="AX1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="23" t="s">
+      <c r="AY1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="AZ1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA1" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="BB1" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="BD1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE1" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="35"/>
-      <c r="CC1" s="35"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="35"/>
-    </row>
-    <row r="2" spans="1:83" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="32">
+      <c r="AZ1" s="34"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="34"/>
+      <c r="BC1" s="34"/>
+      <c r="BD1" s="34"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="34"/>
+      <c r="BG1" s="34"/>
+      <c r="BH1" s="34"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="34"/>
+      <c r="BK1" s="34"/>
+      <c r="BL1" s="34"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="34"/>
+      <c r="BO1" s="34"/>
+      <c r="BP1" s="34"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="34"/>
+      <c r="BS1" s="34"/>
+      <c r="BT1" s="34"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="34"/>
+      <c r="BW1" s="34"/>
+      <c r="BX1" s="34"/>
+      <c r="BY1" s="34"/>
+    </row>
+    <row r="2" spans="1:77" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="31">
         <v>42.130239330000002</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
         <v>13.413394500000001</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="25">
         <v>1420</v>
       </c>
-      <c r="E2" s="28">
-        <v>0</v>
-      </c>
-      <c r="F2" s="41">
+      <c r="E2" s="27">
+        <v>0</v>
+      </c>
+      <c r="F2" s="40">
         <v>2334628</v>
       </c>
-      <c r="G2" s="41">
+      <c r="G2" s="40">
         <v>76534</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="I2" s="27">
+        <v>3.5</v>
+      </c>
+      <c r="J2" s="37">
+        <v>150000</v>
+      </c>
+      <c r="K2" s="28">
+        <f>J2*0.1</f>
+        <v>15000</v>
+      </c>
+      <c r="L2" s="38">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="M2" s="41">
+        <f>0.1*L2</f>
+        <v>1.94</v>
+      </c>
+      <c r="N2" s="36">
+        <v>0</v>
+      </c>
+      <c r="O2" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="P2" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="41">
+        <f>0.1*P2</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="S2" s="27">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="T2" s="27">
+        <v>55.300929440000004</v>
+      </c>
+      <c r="U2" s="41">
+        <f>0.1*T2</f>
+        <v>5.5300929440000006</v>
+      </c>
+      <c r="V2" s="30">
+        <v>0</v>
+      </c>
+      <c r="W2" s="30">
+        <v>0</v>
+      </c>
+      <c r="X2" s="41">
+        <f>0.1*W2</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="52">
+        <v>1E-3</v>
+      </c>
+      <c r="Z2" s="41">
+        <f>0.1*Y2</f>
+        <v>1E-4</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AB2" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>44.249000000000002</v>
+      </c>
+      <c r="AE2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AG2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="AI2" s="27">
+        <v>0.54900000000000004</v>
+      </c>
+      <c r="AJ2" s="27">
+        <v>55.300929440000004</v>
+      </c>
+      <c r="AK2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="AN2" s="27">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AO2" s="27">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="AP2" s="27">
+        <v>44.249000000000002</v>
+      </c>
+      <c r="AQ2" s="27">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AR2" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="27">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="AT2" s="27">
         <v>1</v>
       </c>
-      <c r="I2" s="28">
+      <c r="AU2" s="27">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="AV2" s="27">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="AW2" s="27">
+        <v>0.08</v>
+      </c>
+      <c r="AX2" s="27">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="AY2" s="27">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AZ2" s="35"/>
+      <c r="BA2" s="35"/>
+      <c r="BB2" s="35"/>
+      <c r="BC2" s="35"/>
+      <c r="BD2" s="35"/>
+      <c r="BE2" s="35"/>
+      <c r="BF2" s="35"/>
+      <c r="BG2" s="35"/>
+      <c r="BH2" s="35"/>
+      <c r="BI2" s="35"/>
+      <c r="BJ2" s="35"/>
+      <c r="BK2" s="35"/>
+      <c r="BL2" s="35"/>
+      <c r="BM2" s="35"/>
+      <c r="BN2" s="35"/>
+      <c r="BO2" s="35"/>
+      <c r="BP2" s="35"/>
+      <c r="BQ2" s="35"/>
+      <c r="BR2" s="35"/>
+      <c r="BS2" s="35"/>
+      <c r="BT2" s="35"/>
+      <c r="BU2" s="35"/>
+      <c r="BV2" s="35"/>
+      <c r="BW2" s="35"/>
+      <c r="BX2" s="35"/>
+      <c r="BY2" s="35"/>
+    </row>
+    <row r="3" spans="1:77" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="31">
+        <v>42.129652499999999</v>
+      </c>
+      <c r="C3" s="32">
+        <v>13.41337867</v>
+      </c>
+      <c r="D3" s="25">
+        <v>1416</v>
+      </c>
+      <c r="E3" s="27">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40">
+        <v>2389795</v>
+      </c>
+      <c r="G3" s="40">
+        <v>74627</v>
+      </c>
+      <c r="H3" s="27">
         <v>2.7</v>
       </c>
-      <c r="J2" s="28">
-        <v>3.5</v>
-      </c>
-      <c r="K2" s="28">
-        <v>0</v>
-      </c>
-      <c r="L2" s="38">
+      <c r="I3" s="27">
+        <v>3</v>
+      </c>
+      <c r="J3" s="37">
         <v>150000</v>
       </c>
-      <c r="M2" s="29">
-        <f>L2*0.1</f>
+      <c r="K3" s="28">
+        <f t="shared" ref="K3:K4" si="0">J3*0.1</f>
         <v>15000</v>
       </c>
-      <c r="N2" s="39">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="O2" s="42">
-        <f>0.1*N2</f>
-        <v>1.94</v>
-      </c>
-      <c r="P2" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="28">
+      <c r="L3" s="38">
+        <v>36.61</v>
+      </c>
+      <c r="M3" s="41">
+        <f t="shared" ref="M3:M7" si="1">0.1*L3</f>
+        <v>3.661</v>
+      </c>
+      <c r="N3" s="36">
+        <v>0</v>
+      </c>
+      <c r="O3" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R2" s="31">
-        <v>0</v>
-      </c>
-      <c r="S2" s="42">
-        <f>0.1*R2</f>
-        <v>0</v>
-      </c>
-      <c r="T2" s="28">
+      <c r="P3" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="41">
+        <f t="shared" ref="Q3:Q7" si="2">0.1*P3</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="27">
         <v>1E-3</v>
       </c>
-      <c r="U2" s="28">
+      <c r="S3" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="V2" s="28">
-        <v>55.300929440000004</v>
-      </c>
-      <c r="W2" s="42">
-        <f>0.1*V2</f>
-        <v>5.5300929440000006</v>
-      </c>
-      <c r="X2" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="42">
-        <f>0.1*Y2</f>
-        <v>0</v>
-      </c>
-      <c r="AA2" s="53">
+      <c r="T3" s="27">
+        <v>54.192184820000001</v>
+      </c>
+      <c r="U3" s="41">
+        <f t="shared" ref="U3:U7" si="3">0.1*T3</f>
+        <v>5.4192184820000007</v>
+      </c>
+      <c r="V3" s="30">
+        <v>0</v>
+      </c>
+      <c r="W3" s="30">
+        <v>0</v>
+      </c>
+      <c r="X3" s="41">
+        <f t="shared" ref="X3:X7" si="4">0.1*W3</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="52">
         <v>1E-3</v>
       </c>
-      <c r="AB2" s="42">
-        <f>0.1*AA2</f>
+      <c r="Z3" s="41">
+        <f t="shared" ref="Z3:Z7" si="5">0.1*Y3</f>
         <v>1E-4</v>
       </c>
-      <c r="AC2" s="28">
+      <c r="AA3" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD2" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="28">
+      <c r="AB3" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF2" s="28">
+      <c r="AD3" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AG2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="28">
+      <c r="AE3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AI2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="28">
+      <c r="AG3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="27">
         <v>1E-3</v>
       </c>
-      <c r="AK2" s="28">
+      <c r="AI3" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AL2" s="28">
-        <v>55.300929440000004</v>
-      </c>
-      <c r="AM2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="30">
+      <c r="AJ3" s="27">
+        <v>54.192184820000001</v>
+      </c>
+      <c r="AK3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="29">
         <v>1E-3</v>
       </c>
-      <c r="AP2" s="28">
+      <c r="AN3" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AQ2" s="28">
+      <c r="AO3" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR2" s="28">
+      <c r="AP3" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AS2" s="28">
+      <c r="AQ3" s="27">
         <v>1.6E-2</v>
       </c>
-      <c r="AT2" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU2" s="28">
+      <c r="AR3" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="27">
         <v>0.81100000000000005</v>
       </c>
-      <c r="AV2" s="28">
+      <c r="AT3" s="27">
         <v>1</v>
       </c>
-      <c r="AW2" s="28">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="AX2" s="30">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AY2" s="28">
-        <v>1.984</v>
-      </c>
-      <c r="AZ2" s="28">
+      <c r="AU3" s="27">
+        <v>36.61</v>
+      </c>
+      <c r="AV3" s="27">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="BA2" s="28">
+      <c r="AW3" s="27">
         <v>0.08</v>
       </c>
-      <c r="BB2" s="28">
+      <c r="AX3" s="27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="BC2" s="42">
-        <f>0.1*BB2</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="BD2" s="28">
+      <c r="AY3" s="27">
         <v>0.35099999999999998</v>
       </c>
-      <c r="BE2" s="42">
-        <f>0.1*BD2</f>
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
-      <c r="BJ2" s="36"/>
-      <c r="BK2" s="36"/>
-      <c r="BL2" s="36"/>
-      <c r="BM2" s="36"/>
-      <c r="BN2" s="36"/>
-      <c r="BO2" s="36"/>
-      <c r="BP2" s="36"/>
-      <c r="BQ2" s="36"/>
-      <c r="BR2" s="36"/>
-      <c r="BS2" s="36"/>
-      <c r="BT2" s="36"/>
-      <c r="BU2" s="36"/>
-      <c r="BV2" s="36"/>
-      <c r="BW2" s="36"/>
-      <c r="BX2" s="36"/>
-      <c r="BY2" s="36"/>
-      <c r="BZ2" s="36"/>
-      <c r="CA2" s="36"/>
-      <c r="CB2" s="36"/>
-      <c r="CC2" s="36"/>
-      <c r="CD2" s="36"/>
-      <c r="CE2" s="36"/>
-    </row>
-    <row r="3" spans="1:83" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="32">
-        <v>42.129652499999999</v>
-      </c>
-      <c r="C3" s="33">
-        <v>13.41337867</v>
-      </c>
-      <c r="D3" s="26">
-        <v>1416</v>
-      </c>
-      <c r="E3" s="28">
-        <v>0</v>
-      </c>
-      <c r="F3" s="41">
-        <v>2389795</v>
-      </c>
-      <c r="G3" s="41">
-        <v>74627</v>
-      </c>
-      <c r="H3" s="28">
-        <v>1</v>
-      </c>
-      <c r="I3" s="28">
+      <c r="AZ3" s="35"/>
+      <c r="BA3" s="35"/>
+      <c r="BB3" s="35"/>
+      <c r="BC3" s="35"/>
+      <c r="BD3" s="35"/>
+      <c r="BE3" s="35"/>
+      <c r="BF3" s="35"/>
+      <c r="BG3" s="35"/>
+      <c r="BH3" s="35"/>
+      <c r="BI3" s="35"/>
+      <c r="BJ3" s="35"/>
+      <c r="BK3" s="35"/>
+      <c r="BL3" s="35"/>
+      <c r="BM3" s="35"/>
+      <c r="BN3" s="35"/>
+      <c r="BO3" s="35"/>
+      <c r="BP3" s="35"/>
+      <c r="BQ3" s="35"/>
+      <c r="BR3" s="35"/>
+      <c r="BS3" s="35"/>
+      <c r="BT3" s="35"/>
+      <c r="BU3" s="35"/>
+      <c r="BV3" s="35"/>
+      <c r="BW3" s="35"/>
+      <c r="BX3" s="35"/>
+      <c r="BY3" s="35"/>
+    </row>
+    <row r="4" spans="1:77" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="31">
+        <v>42.129649669999999</v>
+      </c>
+      <c r="C4" s="32">
+        <v>13.413381299999999</v>
+      </c>
+      <c r="D4" s="26">
+        <v>1381.1</v>
+      </c>
+      <c r="E4" s="27">
+        <v>0</v>
+      </c>
+      <c r="F4" s="40">
+        <v>2540835</v>
+      </c>
+      <c r="G4" s="40">
+        <v>79038</v>
+      </c>
+      <c r="H4" s="27">
         <v>2.7</v>
       </c>
-      <c r="J3" s="28">
-        <v>3</v>
-      </c>
-      <c r="K3" s="28">
-        <v>0</v>
-      </c>
-      <c r="L3" s="38">
+      <c r="I4" s="27">
+        <v>2</v>
+      </c>
+      <c r="J4" s="37">
         <v>150000</v>
       </c>
-      <c r="M3" s="29">
-        <f t="shared" ref="M3:M4" si="0">L3*0.1</f>
-        <v>15000</v>
-      </c>
-      <c r="N3" s="39">
-        <v>36.61</v>
-      </c>
-      <c r="O3" s="42">
-        <f t="shared" ref="O3:O7" si="1">0.1*N3</f>
-        <v>3.661</v>
-      </c>
-      <c r="P3" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="R3" s="31">
-        <v>0</v>
-      </c>
-      <c r="S3" s="42">
-        <f t="shared" ref="S3:S7" si="2">0.1*R3</f>
-        <v>0</v>
-      </c>
-      <c r="T3" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="U3" s="28">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="V3" s="28">
-        <v>54.192184820000001</v>
-      </c>
-      <c r="W3" s="42">
-        <f t="shared" ref="W3:W7" si="3">0.1*V3</f>
-        <v>5.4192184820000007</v>
-      </c>
-      <c r="X3" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="42">
-        <f t="shared" ref="Z3:Z7" si="4">0.1*Y3</f>
-        <v>0</v>
-      </c>
-      <c r="AA3" s="53">
-        <v>1E-3</v>
-      </c>
-      <c r="AB3" s="42">
-        <f t="shared" ref="AB3:AB7" si="5">0.1*AA3</f>
-        <v>1E-4</v>
-      </c>
-      <c r="AC3" s="28">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="AD3" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="28">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AF3" s="28">
-        <v>44.249000000000002</v>
-      </c>
-      <c r="AG3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="28">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AI3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="28">
-        <v>1E-3</v>
-      </c>
-      <c r="AK3" s="28">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="AL3" s="28">
-        <v>54.192184820000001</v>
-      </c>
-      <c r="AM3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO3" s="30">
-        <v>1E-3</v>
-      </c>
-      <c r="AP3" s="28">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="AQ3" s="28">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="AR3" s="28">
-        <v>44.249000000000002</v>
-      </c>
-      <c r="AS3" s="28">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AT3" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU3" s="28">
-        <v>0.81100000000000005</v>
-      </c>
-      <c r="AV3" s="28">
-        <v>1</v>
-      </c>
-      <c r="AW3" s="28">
-        <v>36.61</v>
-      </c>
-      <c r="AX3" s="30">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AY3" s="28">
-        <v>1.984</v>
-      </c>
-      <c r="AZ3" s="28">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="BA3" s="28">
-        <v>0.08</v>
-      </c>
-      <c r="BB3" s="28">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="BC3" s="42">
-        <f t="shared" ref="BC3:BC7" si="6">0.1*BB3</f>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="BD3" s="28">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="BE3" s="42">
-        <f t="shared" ref="BE3:BE7" si="7">0.1*BD3</f>
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
-      <c r="BV3" s="36"/>
-      <c r="BW3" s="36"/>
-      <c r="BX3" s="36"/>
-      <c r="BY3" s="36"/>
-      <c r="BZ3" s="36"/>
-      <c r="CA3" s="36"/>
-      <c r="CB3" s="36"/>
-      <c r="CC3" s="36"/>
-      <c r="CD3" s="36"/>
-      <c r="CE3" s="36"/>
-    </row>
-    <row r="4" spans="1:83" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="32">
-        <v>42.129649669999999</v>
-      </c>
-      <c r="C4" s="33">
-        <v>13.413381299999999</v>
-      </c>
-      <c r="D4" s="27">
-        <v>1381.1</v>
-      </c>
-      <c r="E4" s="28">
-        <v>0</v>
-      </c>
-      <c r="F4" s="41">
-        <v>2540835</v>
-      </c>
-      <c r="G4" s="41">
-        <v>79038</v>
-      </c>
-      <c r="H4" s="28">
-        <v>1</v>
-      </c>
-      <c r="I4" s="28">
-        <v>2.7</v>
-      </c>
-      <c r="J4" s="28">
-        <v>2</v>
-      </c>
       <c r="K4" s="28">
-        <v>0</v>
-      </c>
-      <c r="L4" s="38">
-        <v>150000</v>
-      </c>
-      <c r="M4" s="29">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
-      <c r="N4" s="39">
+      <c r="L4" s="38">
         <v>25.51</v>
       </c>
-      <c r="O4" s="42">
+      <c r="M4" s="41">
         <f t="shared" si="1"/>
         <v>2.5510000000000002</v>
       </c>
-      <c r="P4" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="28">
+      <c r="N4" s="36">
+        <v>0</v>
+      </c>
+      <c r="O4" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R4" s="31">
-        <v>0</v>
-      </c>
-      <c r="S4" s="42">
+      <c r="P4" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T4" s="28">
+      <c r="R4" s="27">
         <v>1E-3</v>
       </c>
-      <c r="U4" s="28">
+      <c r="S4" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="V4" s="28">
+      <c r="T4" s="27">
         <v>56.626441120000003</v>
       </c>
-      <c r="W4" s="42">
+      <c r="U4" s="41">
         <f t="shared" si="3"/>
         <v>5.6626441120000006</v>
       </c>
-      <c r="X4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="42">
+      <c r="V4" s="30">
+        <v>0</v>
+      </c>
+      <c r="W4" s="30">
+        <v>0</v>
+      </c>
+      <c r="X4" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="53">
+      <c r="Y4" s="52">
         <v>1E-3</v>
       </c>
-      <c r="AB4" s="42">
+      <c r="Z4" s="41">
         <f t="shared" si="5"/>
         <v>1E-4</v>
       </c>
-      <c r="AC4" s="28">
+      <c r="AA4" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD4" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="28">
+      <c r="AB4" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF4" s="28">
+      <c r="AD4" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AG4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="28">
+      <c r="AE4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AI4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="28">
+      <c r="AG4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="27">
         <v>1E-3</v>
       </c>
-      <c r="AK4" s="28">
+      <c r="AI4" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AL4" s="28">
+      <c r="AJ4" s="27">
         <v>56.626441120000003</v>
       </c>
-      <c r="AM4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="30">
+      <c r="AK4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="29">
         <v>1E-3</v>
       </c>
-      <c r="AP4" s="28">
+      <c r="AN4" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AQ4" s="28">
+      <c r="AO4" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR4" s="28">
+      <c r="AP4" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AS4" s="28">
+      <c r="AQ4" s="27">
         <v>1.6E-2</v>
       </c>
-      <c r="AT4" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="28">
+      <c r="AR4" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="27">
         <v>0.81100000000000005</v>
       </c>
-      <c r="AV4" s="28">
+      <c r="AT4" s="27">
         <v>1</v>
       </c>
-      <c r="AW4" s="28">
+      <c r="AU4" s="27">
         <v>25.51</v>
       </c>
-      <c r="AX4" s="30">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AY4" s="28">
-        <v>1.984</v>
-      </c>
-      <c r="AZ4" s="28">
+      <c r="AV4" s="27">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="BA4" s="28">
+      <c r="AW4" s="27">
         <v>0.08</v>
       </c>
-      <c r="BB4" s="28">
+      <c r="AX4" s="27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="BC4" s="42">
-        <f t="shared" si="6"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="BD4" s="28">
+      <c r="AY4" s="27">
         <v>0.35099999999999998</v>
       </c>
-      <c r="BE4" s="42">
-        <f t="shared" si="7"/>
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
-      <c r="BJ4" s="36"/>
-      <c r="BK4" s="36"/>
-      <c r="BL4" s="36"/>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36"/>
-      <c r="BO4" s="36"/>
-      <c r="BP4" s="36"/>
-      <c r="BQ4" s="36"/>
-      <c r="BR4" s="36"/>
-      <c r="BS4" s="36"/>
-      <c r="BT4" s="36"/>
-      <c r="BU4" s="36"/>
-      <c r="BV4" s="36"/>
-      <c r="BW4" s="36"/>
-      <c r="BX4" s="36"/>
-      <c r="BY4" s="36"/>
-      <c r="BZ4" s="36"/>
-      <c r="CA4" s="36"/>
-      <c r="CB4" s="36"/>
-      <c r="CC4" s="36"/>
-      <c r="CD4" s="36"/>
-      <c r="CE4" s="36"/>
-    </row>
-    <row r="5" spans="1:83" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="32">
+      <c r="AZ4" s="35"/>
+      <c r="BA4" s="35"/>
+      <c r="BB4" s="35"/>
+      <c r="BC4" s="35"/>
+      <c r="BD4" s="35"/>
+      <c r="BE4" s="35"/>
+      <c r="BF4" s="35"/>
+      <c r="BG4" s="35"/>
+      <c r="BH4" s="35"/>
+      <c r="BI4" s="35"/>
+      <c r="BJ4" s="35"/>
+      <c r="BK4" s="35"/>
+      <c r="BL4" s="35"/>
+      <c r="BM4" s="35"/>
+      <c r="BN4" s="35"/>
+      <c r="BO4" s="35"/>
+      <c r="BP4" s="35"/>
+      <c r="BQ4" s="35"/>
+      <c r="BR4" s="35"/>
+      <c r="BS4" s="35"/>
+      <c r="BT4" s="35"/>
+      <c r="BU4" s="35"/>
+      <c r="BV4" s="35"/>
+      <c r="BW4" s="35"/>
+      <c r="BX4" s="35"/>
+      <c r="BY4" s="35"/>
+    </row>
+    <row r="5" spans="1:77" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="31">
         <v>42.129283829999999</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
         <v>13.4129775</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="26">
         <v>1356.7</v>
       </c>
-      <c r="E5" s="28">
-        <v>0</v>
-      </c>
-      <c r="F5" s="41">
+      <c r="E5" s="27">
+        <v>0</v>
+      </c>
+      <c r="F5" s="40">
         <v>1797778</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="40">
         <v>56888</v>
       </c>
-      <c r="H5" s="28">
-        <v>1</v>
-      </c>
-      <c r="I5" s="28">
+      <c r="H5" s="27">
         <v>2.7</v>
       </c>
-      <c r="J5" s="28">
+      <c r="I5" s="27">
         <v>2.8</v>
       </c>
+      <c r="J5" s="37">
+        <v>150000</v>
+      </c>
       <c r="K5" s="28">
-        <v>0</v>
+        <f>J5*0.1</f>
+        <v>15000</v>
       </c>
       <c r="L5" s="38">
-        <v>150000</v>
-      </c>
-      <c r="M5" s="29">
-        <f>L5*0.1</f>
-        <v>15000</v>
-      </c>
-      <c r="N5" s="39">
         <v>28.01</v>
       </c>
-      <c r="O5" s="42">
+      <c r="M5" s="41">
         <f t="shared" si="1"/>
         <v>2.8010000000000002</v>
       </c>
-      <c r="P5" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="28">
+      <c r="N5" s="36">
+        <v>0</v>
+      </c>
+      <c r="O5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R5" s="31">
-        <v>0</v>
-      </c>
-      <c r="S5" s="42">
+      <c r="P5" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5" s="28">
+      <c r="R5" s="27">
         <v>1E-3</v>
       </c>
-      <c r="U5" s="28">
+      <c r="S5" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="V5" s="28">
+      <c r="T5" s="27">
         <v>55.755874379999995</v>
       </c>
-      <c r="W5" s="42">
+      <c r="U5" s="41">
         <f t="shared" si="3"/>
         <v>5.5755874379999995</v>
       </c>
-      <c r="X5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="42">
+      <c r="V5" s="30">
+        <v>0</v>
+      </c>
+      <c r="W5" s="30">
+        <v>0</v>
+      </c>
+      <c r="X5" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA5" s="53">
+      <c r="Y5" s="52">
         <v>1E-3</v>
       </c>
-      <c r="AB5" s="42">
+      <c r="Z5" s="41">
         <f t="shared" si="5"/>
         <v>1E-4</v>
       </c>
-      <c r="AC5" s="28">
+      <c r="AA5" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD5" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="28">
+      <c r="AB5" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF5" s="28">
+      <c r="AD5" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AG5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="28">
+      <c r="AE5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AI5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="28">
+      <c r="AG5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="27">
         <v>1E-3</v>
       </c>
-      <c r="AK5" s="28">
+      <c r="AI5" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AL5" s="28">
+      <c r="AJ5" s="27">
         <v>55.755874379999995</v>
       </c>
-      <c r="AM5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO5" s="30">
+      <c r="AK5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="29">
         <v>1E-3</v>
       </c>
-      <c r="AP5" s="28">
+      <c r="AN5" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AQ5" s="28">
+      <c r="AO5" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR5" s="28">
+      <c r="AP5" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AS5" s="28">
+      <c r="AQ5" s="27">
         <v>1.6E-2</v>
       </c>
-      <c r="AT5" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="28">
+      <c r="AR5" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="27">
         <v>0.81100000000000005</v>
       </c>
-      <c r="AV5" s="28">
+      <c r="AT5" s="27">
         <v>1</v>
       </c>
-      <c r="AW5" s="28">
+      <c r="AU5" s="27">
         <v>28.01</v>
       </c>
-      <c r="AX5" s="30">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AY5" s="28">
-        <v>1.984</v>
-      </c>
-      <c r="AZ5" s="28">
+      <c r="AV5" s="27">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="BA5" s="28">
+      <c r="AW5" s="27">
         <v>0.08</v>
       </c>
-      <c r="BB5" s="28">
+      <c r="AX5" s="27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="BC5" s="42">
-        <f t="shared" si="6"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="BD5" s="28">
+      <c r="AY5" s="27">
         <v>0.35099999999999998</v>
       </c>
-      <c r="BE5" s="42">
-        <f t="shared" si="7"/>
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
-      <c r="BJ5" s="36"/>
-      <c r="BK5" s="36"/>
-      <c r="BL5" s="36"/>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36"/>
-      <c r="BO5" s="36"/>
-      <c r="BP5" s="36"/>
-      <c r="BQ5" s="36"/>
-      <c r="BR5" s="36"/>
-      <c r="BS5" s="36"/>
-      <c r="BT5" s="36"/>
-      <c r="BU5" s="36"/>
-      <c r="BV5" s="36"/>
-      <c r="BW5" s="36"/>
-      <c r="BX5" s="36"/>
-      <c r="BY5" s="36"/>
-      <c r="BZ5" s="36"/>
-      <c r="CA5" s="36"/>
-      <c r="CB5" s="36"/>
-      <c r="CC5" s="36"/>
-      <c r="CD5" s="36"/>
-      <c r="CE5" s="36"/>
-    </row>
-    <row r="6" spans="1:83" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="32">
+      <c r="AZ5" s="35"/>
+      <c r="BA5" s="35"/>
+      <c r="BB5" s="35"/>
+      <c r="BC5" s="35"/>
+      <c r="BD5" s="35"/>
+      <c r="BE5" s="35"/>
+      <c r="BF5" s="35"/>
+      <c r="BG5" s="35"/>
+      <c r="BH5" s="35"/>
+      <c r="BI5" s="35"/>
+      <c r="BJ5" s="35"/>
+      <c r="BK5" s="35"/>
+      <c r="BL5" s="35"/>
+      <c r="BM5" s="35"/>
+      <c r="BN5" s="35"/>
+      <c r="BO5" s="35"/>
+      <c r="BP5" s="35"/>
+      <c r="BQ5" s="35"/>
+      <c r="BR5" s="35"/>
+      <c r="BS5" s="35"/>
+      <c r="BT5" s="35"/>
+      <c r="BU5" s="35"/>
+      <c r="BV5" s="35"/>
+      <c r="BW5" s="35"/>
+      <c r="BX5" s="35"/>
+      <c r="BY5" s="35"/>
+    </row>
+    <row r="6" spans="1:77" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="31">
         <v>42.128590000000003</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
         <v>13.413190500000001</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="26">
         <v>1305</v>
       </c>
-      <c r="E6" s="28">
-        <v>0</v>
-      </c>
-      <c r="F6" s="41">
+      <c r="E6" s="27">
+        <v>0</v>
+      </c>
+      <c r="F6" s="40">
         <v>3041120</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="40">
         <v>84229</v>
       </c>
-      <c r="H6" s="28">
-        <v>1</v>
-      </c>
-      <c r="I6" s="28">
+      <c r="H6" s="27">
         <v>2.7</v>
       </c>
-      <c r="J6" s="28">
+      <c r="I6" s="27">
         <v>3</v>
       </c>
+      <c r="J6" s="37">
+        <v>150000</v>
+      </c>
       <c r="K6" s="28">
-        <v>0</v>
+        <f t="shared" ref="K6:K7" si="6">J6*0.1</f>
+        <v>15000</v>
       </c>
       <c r="L6" s="38">
-        <v>150000</v>
-      </c>
-      <c r="M6" s="29">
-        <f t="shared" ref="M6:M7" si="8">L6*0.1</f>
-        <v>15000</v>
-      </c>
-      <c r="N6" s="39">
         <v>20.46</v>
       </c>
-      <c r="O6" s="42">
+      <c r="M6" s="41">
         <f t="shared" si="1"/>
         <v>2.0460000000000003</v>
       </c>
-      <c r="P6" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="28">
+      <c r="N6" s="36">
+        <v>0</v>
+      </c>
+      <c r="O6" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R6" s="31">
-        <v>0</v>
-      </c>
-      <c r="S6" s="42">
+      <c r="P6" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="28">
+      <c r="R6" s="27">
         <v>1E-3</v>
       </c>
-      <c r="U6" s="28">
+      <c r="S6" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="V6" s="28">
+      <c r="T6" s="27">
         <v>57.720492039999996</v>
       </c>
-      <c r="W6" s="42">
+      <c r="U6" s="41">
         <f t="shared" si="3"/>
         <v>5.772049204</v>
       </c>
-      <c r="X6" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="42">
+      <c r="V6" s="30">
+        <v>0</v>
+      </c>
+      <c r="W6" s="30">
+        <v>0</v>
+      </c>
+      <c r="X6" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA6" s="53">
+      <c r="Y6" s="52">
         <v>1E-3</v>
       </c>
-      <c r="AB6" s="42">
+      <c r="Z6" s="41">
         <f t="shared" si="5"/>
         <v>1E-4</v>
       </c>
-      <c r="AC6" s="28">
+      <c r="AA6" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD6" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="28">
+      <c r="AB6" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF6" s="28">
+      <c r="AD6" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AG6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
+      <c r="AE6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AI6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="28">
+      <c r="AG6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="27">
         <v>1E-3</v>
       </c>
-      <c r="AK6" s="28">
+      <c r="AI6" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AL6" s="28">
+      <c r="AJ6" s="27">
         <v>57.720492039999996</v>
       </c>
-      <c r="AM6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="30">
+      <c r="AK6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="29">
         <v>1E-3</v>
       </c>
-      <c r="AP6" s="28">
+      <c r="AN6" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AQ6" s="28">
+      <c r="AO6" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR6" s="28">
+      <c r="AP6" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AS6" s="28">
+      <c r="AQ6" s="27">
         <v>1.6E-2</v>
       </c>
-      <c r="AT6" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="28">
+      <c r="AR6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="27">
         <v>0.81100000000000005</v>
       </c>
-      <c r="AV6" s="28">
+      <c r="AT6" s="27">
         <v>1</v>
       </c>
-      <c r="AW6" s="28">
+      <c r="AU6" s="27">
         <v>20.46</v>
       </c>
-      <c r="AX6" s="30">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AY6" s="28">
-        <v>1.984</v>
-      </c>
-      <c r="AZ6" s="28">
+      <c r="AV6" s="27">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="BA6" s="28">
+      <c r="AW6" s="27">
         <v>0.08</v>
       </c>
-      <c r="BB6" s="28">
+      <c r="AX6" s="27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="BC6" s="42">
+      <c r="AY6" s="27">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="AZ6" s="35"/>
+      <c r="BA6" s="35"/>
+      <c r="BB6" s="35"/>
+      <c r="BC6" s="35"/>
+      <c r="BD6" s="35"/>
+      <c r="BE6" s="35"/>
+      <c r="BF6" s="35"/>
+      <c r="BG6" s="35"/>
+      <c r="BH6" s="35"/>
+      <c r="BI6" s="35"/>
+      <c r="BJ6" s="35"/>
+      <c r="BK6" s="35"/>
+      <c r="BL6" s="35"/>
+      <c r="BM6" s="35"/>
+      <c r="BN6" s="35"/>
+      <c r="BO6" s="35"/>
+      <c r="BP6" s="35"/>
+      <c r="BQ6" s="35"/>
+      <c r="BR6" s="35"/>
+      <c r="BS6" s="35"/>
+      <c r="BT6" s="35"/>
+      <c r="BU6" s="35"/>
+      <c r="BV6" s="35"/>
+      <c r="BW6" s="35"/>
+      <c r="BX6" s="35"/>
+      <c r="BY6" s="35"/>
+    </row>
+    <row r="7" spans="1:77" s="24" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="31">
+        <v>42.128399330000001</v>
+      </c>
+      <c r="C7" s="32">
+        <v>13.413185670000001</v>
+      </c>
+      <c r="D7" s="26">
+        <v>1302.2</v>
+      </c>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="40">
+        <v>3027645</v>
+      </c>
+      <c r="G7" s="40">
+        <v>83462</v>
+      </c>
+      <c r="H7" s="27">
+        <v>2.7</v>
+      </c>
+      <c r="I7" s="27">
+        <v>2.5</v>
+      </c>
+      <c r="J7" s="37">
+        <v>150000</v>
+      </c>
+      <c r="K7" s="28">
         <f t="shared" si="6"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="BD6" s="28">
-        <v>0.35099999999999998</v>
-      </c>
-      <c r="BE6" s="42">
-        <f t="shared" si="7"/>
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="BF6" s="36"/>
-      <c r="BG6" s="36"/>
-      <c r="BH6" s="36"/>
-      <c r="BI6" s="36"/>
-      <c r="BJ6" s="36"/>
-      <c r="BK6" s="36"/>
-      <c r="BL6" s="36"/>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36"/>
-      <c r="BO6" s="36"/>
-      <c r="BP6" s="36"/>
-      <c r="BQ6" s="36"/>
-      <c r="BR6" s="36"/>
-      <c r="BS6" s="36"/>
-      <c r="BT6" s="36"/>
-      <c r="BU6" s="36"/>
-      <c r="BV6" s="36"/>
-      <c r="BW6" s="36"/>
-      <c r="BX6" s="36"/>
-      <c r="BY6" s="36"/>
-      <c r="BZ6" s="36"/>
-      <c r="CA6" s="36"/>
-      <c r="CB6" s="36"/>
-      <c r="CC6" s="36"/>
-      <c r="CD6" s="36"/>
-      <c r="CE6" s="36"/>
-    </row>
-    <row r="7" spans="1:83" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="32">
-        <v>42.128399330000001</v>
-      </c>
-      <c r="C7" s="33">
-        <v>13.413185670000001</v>
-      </c>
-      <c r="D7" s="27">
-        <v>1302.2</v>
-      </c>
-      <c r="E7" s="28">
-        <v>0</v>
-      </c>
-      <c r="F7" s="41">
-        <v>3027645</v>
-      </c>
-      <c r="G7" s="41">
-        <v>83462</v>
-      </c>
-      <c r="H7" s="28">
-        <v>1</v>
-      </c>
-      <c r="I7" s="28">
-        <v>2.7</v>
-      </c>
-      <c r="J7" s="28">
-        <v>2.5</v>
-      </c>
-      <c r="K7" s="28">
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="L7" s="38">
-        <v>150000</v>
-      </c>
-      <c r="M7" s="29">
-        <f t="shared" si="8"/>
-        <v>15000</v>
-      </c>
-      <c r="N7" s="39">
         <v>21.09</v>
       </c>
-      <c r="O7" s="42">
+      <c r="M7" s="41">
         <f t="shared" si="1"/>
         <v>2.109</v>
       </c>
-      <c r="P7" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="28">
+      <c r="N7" s="36">
+        <v>0</v>
+      </c>
+      <c r="O7" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="R7" s="31">
-        <v>0</v>
-      </c>
-      <c r="S7" s="42">
+      <c r="P7" s="30">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="41">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T7" s="28">
+      <c r="R7" s="27">
         <v>1E-3</v>
       </c>
-      <c r="U7" s="28">
+      <c r="S7" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="V7" s="28">
+      <c r="T7" s="27">
         <v>55.250551040000005</v>
       </c>
-      <c r="W7" s="42">
+      <c r="U7" s="41">
         <f t="shared" si="3"/>
         <v>5.5250551040000007</v>
       </c>
-      <c r="X7" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="31">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="42">
+      <c r="V7" s="30">
+        <v>0</v>
+      </c>
+      <c r="W7" s="30">
+        <v>0</v>
+      </c>
+      <c r="X7" s="41">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AA7" s="53">
+      <c r="Y7" s="52">
         <v>1E-3</v>
       </c>
-      <c r="AB7" s="42">
+      <c r="Z7" s="41">
         <f t="shared" si="5"/>
         <v>1E-4</v>
       </c>
-      <c r="AC7" s="28">
+      <c r="AA7" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AD7" s="31">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="28">
+      <c r="AB7" s="30">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF7" s="28">
+      <c r="AD7" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AG7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="28">
+      <c r="AE7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AI7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="28">
+      <c r="AG7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="27">
         <v>1E-3</v>
       </c>
-      <c r="AK7" s="28">
+      <c r="AI7" s="27">
         <v>0.54900000000000004</v>
       </c>
-      <c r="AL7" s="28">
+      <c r="AJ7" s="27">
         <v>55.250551040000005</v>
       </c>
-      <c r="AM7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="30">
+      <c r="AK7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="29">
         <v>1E-3</v>
       </c>
-      <c r="AP7" s="28">
+      <c r="AN7" s="27">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="AQ7" s="28">
+      <c r="AO7" s="27">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AR7" s="28">
+      <c r="AP7" s="27">
         <v>44.249000000000002</v>
       </c>
-      <c r="AS7" s="28">
+      <c r="AQ7" s="27">
         <v>1.6E-2</v>
       </c>
-      <c r="AT7" s="30">
-        <v>0</v>
-      </c>
-      <c r="AU7" s="28">
+      <c r="AR7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="27">
         <v>0.81100000000000005</v>
       </c>
-      <c r="AV7" s="28">
+      <c r="AT7" s="27">
         <v>1</v>
       </c>
-      <c r="AW7" s="28">
+      <c r="AU7" s="27">
         <v>21.09</v>
       </c>
-      <c r="AX7" s="30">
-        <v>0.33700000000000002</v>
-      </c>
-      <c r="AY7" s="28">
-        <v>1.984</v>
-      </c>
-      <c r="AZ7" s="28">
+      <c r="AV7" s="27">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="BA7" s="28">
+      <c r="AW7" s="27">
         <v>0.08</v>
       </c>
-      <c r="BB7" s="28">
+      <c r="AX7" s="27">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="BC7" s="42">
-        <f t="shared" si="6"/>
-        <v>8.9999999999999998E-4</v>
-      </c>
-      <c r="BD7" s="28">
+      <c r="AY7" s="27">
         <v>0.35099999999999998</v>
       </c>
-      <c r="BE7" s="42">
-        <f t="shared" si="7"/>
-        <v>3.5099999999999999E-2</v>
-      </c>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="36"/>
-      <c r="BK7" s="36"/>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="36"/>
-      <c r="BR7" s="36"/>
-      <c r="BS7" s="36"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="36"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="36"/>
-    </row>
-    <row r="8" spans="1:83" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="AZ7" s="35"/>
+      <c r="BA7" s="35"/>
+      <c r="BB7" s="35"/>
+      <c r="BC7" s="35"/>
+      <c r="BD7" s="35"/>
+      <c r="BE7" s="35"/>
+      <c r="BF7" s="35"/>
+      <c r="BG7" s="35"/>
+      <c r="BH7" s="35"/>
+      <c r="BI7" s="35"/>
+      <c r="BJ7" s="35"/>
+      <c r="BK7" s="35"/>
+      <c r="BL7" s="35"/>
+      <c r="BM7" s="35"/>
+      <c r="BN7" s="35"/>
+      <c r="BO7" s="35"/>
+      <c r="BP7" s="35"/>
+      <c r="BQ7" s="35"/>
+      <c r="BR7" s="35"/>
+      <c r="BS7" s="35"/>
+      <c r="BT7" s="35"/>
+      <c r="BU7" s="35"/>
+      <c r="BV7" s="35"/>
+      <c r="BW7" s="35"/>
+      <c r="BX7" s="35"/>
+      <c r="BY7" s="35"/>
+    </row>
+    <row r="8" spans="1:77" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
       <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="48"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="49"/>
-      <c r="O8" s="48"/>
+      <c r="O8" s="45"/>
       <c r="P8" s="50"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="46"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="46"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="46"/>
-      <c r="AF8" s="46"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="46"/>
-      <c r="AI8" s="51"/>
-      <c r="AJ8" s="46"/>
-      <c r="AK8" s="46"/>
-      <c r="AL8" s="46"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="46"/>
-      <c r="AQ8" s="46"/>
-      <c r="AR8" s="46"/>
-      <c r="AS8" s="46"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="46"/>
-      <c r="AV8" s="46"/>
-      <c r="AW8" s="46"/>
-      <c r="AX8" s="52"/>
-      <c r="AY8" s="46"/>
-      <c r="AZ8" s="46"/>
-      <c r="BA8" s="46"/>
-      <c r="BB8" s="46"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="46"/>
-      <c r="BE8" s="52"/>
-    </row>
-    <row r="9" spans="1:83" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="Q8" s="50"/>
+      <c r="R8" s="45"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="47"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="51"/>
+      <c r="Y8" s="51"/>
+      <c r="Z8" s="51"/>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="51"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="45"/>
+      <c r="AE8" s="51"/>
+      <c r="AF8" s="45"/>
+      <c r="AG8" s="50"/>
+      <c r="AH8" s="45"/>
+      <c r="AI8" s="45"/>
+      <c r="AJ8" s="45"/>
+      <c r="AK8" s="51"/>
+      <c r="AL8" s="51"/>
+      <c r="AM8" s="51"/>
+      <c r="AN8" s="45"/>
+      <c r="AO8" s="45"/>
+      <c r="AP8" s="45"/>
+      <c r="AQ8" s="45"/>
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="45"/>
+      <c r="AT8" s="45"/>
+      <c r="AU8" s="45"/>
+      <c r="AV8" s="45"/>
+      <c r="AW8" s="45"/>
+      <c r="AX8" s="45"/>
+      <c r="AY8" s="45"/>
+    </row>
+    <row r="9" spans="1:77" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
       <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="48"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="49"/>
-      <c r="O9" s="48"/>
+      <c r="O9" s="45"/>
       <c r="P9" s="50"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="46"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="46"/>
-      <c r="AF9" s="46"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="46"/>
-      <c r="AI9" s="51"/>
-      <c r="AJ9" s="46"/>
-      <c r="AK9" s="46"/>
-      <c r="AL9" s="46"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="46"/>
-      <c r="AQ9" s="46"/>
-      <c r="AR9" s="46"/>
-      <c r="AS9" s="46"/>
-      <c r="AT9" s="52"/>
-      <c r="AU9" s="46"/>
-      <c r="AV9" s="46"/>
-      <c r="AW9" s="46"/>
-      <c r="AX9" s="52"/>
-      <c r="AY9" s="46"/>
-      <c r="AZ9" s="46"/>
-      <c r="BA9" s="46"/>
-      <c r="BB9" s="46"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="46"/>
-      <c r="BE9" s="52"/>
-    </row>
-    <row r="10" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="50"/>
+      <c r="R9" s="45"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="47"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
+      <c r="Z9" s="51"/>
+      <c r="AA9" s="45"/>
+      <c r="AB9" s="51"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="45"/>
+      <c r="AE9" s="51"/>
+      <c r="AF9" s="45"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="45"/>
+      <c r="AJ9" s="45"/>
+      <c r="AK9" s="51"/>
+      <c r="AL9" s="51"/>
+      <c r="AM9" s="51"/>
+      <c r="AN9" s="45"/>
+      <c r="AO9" s="45"/>
+      <c r="AP9" s="45"/>
+      <c r="AQ9" s="45"/>
+      <c r="AR9" s="51"/>
+      <c r="AS9" s="45"/>
+      <c r="AT9" s="45"/>
+      <c r="AU9" s="45"/>
+      <c r="AV9" s="45"/>
+      <c r="AW9" s="45"/>
+      <c r="AX9" s="45"/>
+      <c r="AY9" s="45"/>
+    </row>
+    <row r="10" spans="1:77" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="17"/>
       <c r="E10" s="17"/>
       <c r="F10" s="18"/>
       <c r="G10" s="17"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="17"/>
       <c r="L10" s="18"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
       <c r="Q10" s="17"/>
-      <c r="R10" s="18"/>
+      <c r="R10" s="17"/>
       <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
+      <c r="T10" s="18"/>
       <c r="U10" s="17"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="18"/>
       <c r="X10" s="17"/>
       <c r="Y10" s="18"/>
-      <c r="Z10" s="17"/>
-      <c r="AA10" s="18"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
       <c r="AB10" s="20"/>
       <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
       <c r="AF10" s="19"/>
       <c r="AG10" s="19"/>
       <c r="AH10" s="19"/>
@@ -2692,22 +2518,16 @@
       <c r="AO10" s="19"/>
       <c r="AP10" s="19"/>
       <c r="AQ10" s="19"/>
-      <c r="AR10" s="19"/>
-      <c r="AS10" s="19"/>
+      <c r="AR10" s="17"/>
+      <c r="AS10" s="17"/>
       <c r="AT10" s="17"/>
-      <c r="AU10" s="17"/>
+      <c r="AU10" s="21"/>
       <c r="AV10" s="17"/>
-      <c r="AW10" s="21"/>
-      <c r="AX10" s="17"/>
-      <c r="AY10" s="17"/>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="17"/>
-      <c r="BB10" s="18"/>
-      <c r="BC10" s="17"/>
-      <c r="BD10" s="18"/>
-      <c r="BE10" s="17"/>
-    </row>
-    <row r="11" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW10" s="17"/>
+      <c r="AX10" s="18"/>
+      <c r="AY10" s="18"/>
+    </row>
+    <row r="11" spans="1:77" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -2717,28 +2537,28 @@
       <c r="G11" s="17"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
+      <c r="J11" s="18"/>
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
       <c r="Q11" s="17"/>
-      <c r="R11" s="18"/>
+      <c r="R11" s="17"/>
       <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
+      <c r="T11" s="18"/>
       <c r="U11" s="17"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="18"/>
-      <c r="Z11" s="17"/>
-      <c r="AA11" s="18"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
       <c r="AB11" s="20"/>
       <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
       <c r="AF11" s="19"/>
       <c r="AG11" s="19"/>
       <c r="AH11" s="19"/>
@@ -2751,22 +2571,16 @@
       <c r="AO11" s="19"/>
       <c r="AP11" s="19"/>
       <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
+      <c r="AR11" s="17"/>
+      <c r="AS11" s="17"/>
       <c r="AT11" s="17"/>
-      <c r="AU11" s="17"/>
+      <c r="AU11" s="21"/>
       <c r="AV11" s="17"/>
-      <c r="AW11" s="21"/>
-      <c r="AX11" s="21"/>
-      <c r="AY11" s="17"/>
-      <c r="AZ11" s="17"/>
-      <c r="BA11" s="17"/>
-      <c r="BB11" s="18"/>
-      <c r="BC11" s="17"/>
-      <c r="BD11" s="18"/>
-      <c r="BE11" s="17"/>
-    </row>
-    <row r="12" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW11" s="17"/>
+      <c r="AX11" s="18"/>
+      <c r="AY11" s="18"/>
+    </row>
+    <row r="12" spans="1:77" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -2776,28 +2590,28 @@
       <c r="G12" s="17"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
+      <c r="J12" s="18"/>
       <c r="K12" s="17"/>
       <c r="L12" s="18"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="19"/>
-      <c r="P12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
       <c r="Q12" s="17"/>
-      <c r="R12" s="18"/>
+      <c r="R12" s="17"/>
       <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
+      <c r="T12" s="18"/>
       <c r="U12" s="17"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="18"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="18"/>
-      <c r="Z12" s="17"/>
-      <c r="AA12" s="18"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
       <c r="AB12" s="20"/>
       <c r="AC12" s="20"/>
-      <c r="AD12" s="20"/>
-      <c r="AE12" s="20"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
       <c r="AF12" s="19"/>
       <c r="AG12" s="19"/>
       <c r="AH12" s="19"/>
@@ -2810,22 +2624,16 @@
       <c r="AO12" s="19"/>
       <c r="AP12" s="19"/>
       <c r="AQ12" s="19"/>
-      <c r="AR12" s="19"/>
-      <c r="AS12" s="19"/>
+      <c r="AR12" s="17"/>
+      <c r="AS12" s="17"/>
       <c r="AT12" s="17"/>
-      <c r="AU12" s="17"/>
+      <c r="AU12" s="21"/>
       <c r="AV12" s="17"/>
-      <c r="AW12" s="21"/>
-      <c r="AX12" s="21"/>
-      <c r="AY12" s="17"/>
-      <c r="AZ12" s="17"/>
-      <c r="BA12" s="17"/>
-      <c r="BB12" s="18"/>
-      <c r="BC12" s="17"/>
-      <c r="BD12" s="18"/>
-      <c r="BE12" s="17"/>
-    </row>
-    <row r="13" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW12" s="17"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+    </row>
+    <row r="13" spans="1:77" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -2835,28 +2643,28 @@
       <c r="G13" s="17"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="J13" s="18"/>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
       <c r="Q13" s="17"/>
-      <c r="R13" s="18"/>
+      <c r="R13" s="17"/>
       <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
+      <c r="T13" s="18"/>
       <c r="U13" s="17"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="18"/>
       <c r="X13" s="17"/>
       <c r="Y13" s="18"/>
-      <c r="Z13" s="17"/>
-      <c r="AA13" s="18"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
       <c r="AB13" s="20"/>
       <c r="AC13" s="20"/>
-      <c r="AD13" s="20"/>
-      <c r="AE13" s="20"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
       <c r="AF13" s="19"/>
       <c r="AG13" s="19"/>
       <c r="AH13" s="19"/>
@@ -2869,22 +2677,16 @@
       <c r="AO13" s="19"/>
       <c r="AP13" s="19"/>
       <c r="AQ13" s="19"/>
-      <c r="AR13" s="19"/>
-      <c r="AS13" s="19"/>
+      <c r="AR13" s="17"/>
+      <c r="AS13" s="17"/>
       <c r="AT13" s="17"/>
-      <c r="AU13" s="17"/>
+      <c r="AU13" s="21"/>
       <c r="AV13" s="17"/>
-      <c r="AW13" s="21"/>
-      <c r="AX13" s="21"/>
-      <c r="AY13" s="17"/>
-      <c r="AZ13" s="17"/>
-      <c r="BA13" s="17"/>
-      <c r="BB13" s="18"/>
-      <c r="BC13" s="17"/>
-      <c r="BD13" s="18"/>
-      <c r="BE13" s="17"/>
-    </row>
-    <row r="14" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW13" s="17"/>
+      <c r="AX13" s="18"/>
+      <c r="AY13" s="18"/>
+    </row>
+    <row r="14" spans="1:77" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
@@ -2894,28 +2696,28 @@
       <c r="G14" s="17"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="J14" s="18"/>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="19"/>
-      <c r="P14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
       <c r="Q14" s="17"/>
-      <c r="R14" s="18"/>
+      <c r="R14" s="17"/>
       <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
+      <c r="T14" s="18"/>
       <c r="U14" s="17"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="18"/>
       <c r="X14" s="17"/>
       <c r="Y14" s="18"/>
-      <c r="Z14" s="17"/>
-      <c r="AA14" s="18"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
       <c r="AB14" s="20"/>
       <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
       <c r="AF14" s="19"/>
       <c r="AG14" s="19"/>
       <c r="AH14" s="19"/>
@@ -2928,22 +2730,16 @@
       <c r="AO14" s="19"/>
       <c r="AP14" s="19"/>
       <c r="AQ14" s="19"/>
-      <c r="AR14" s="19"/>
-      <c r="AS14" s="19"/>
+      <c r="AR14" s="17"/>
+      <c r="AS14" s="17"/>
       <c r="AT14" s="17"/>
-      <c r="AU14" s="17"/>
+      <c r="AU14" s="21"/>
       <c r="AV14" s="17"/>
-      <c r="AW14" s="21"/>
-      <c r="AX14" s="21"/>
-      <c r="AY14" s="17"/>
-      <c r="AZ14" s="17"/>
-      <c r="BA14" s="17"/>
-      <c r="BB14" s="18"/>
-      <c r="BC14" s="17"/>
-      <c r="BD14" s="18"/>
-      <c r="BE14" s="17"/>
-    </row>
-    <row r="15" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW14" s="17"/>
+      <c r="AX14" s="18"/>
+      <c r="AY14" s="18"/>
+    </row>
+    <row r="15" spans="1:77" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -2953,28 +2749,28 @@
       <c r="G15" s="17"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="J15" s="18"/>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="19"/>
-      <c r="P15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
       <c r="Q15" s="17"/>
-      <c r="R15" s="18"/>
+      <c r="R15" s="17"/>
       <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="17"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="18"/>
       <c r="X15" s="17"/>
       <c r="Y15" s="18"/>
-      <c r="Z15" s="17"/>
-      <c r="AA15" s="18"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
       <c r="AB15" s="20"/>
       <c r="AC15" s="20"/>
-      <c r="AD15" s="20"/>
-      <c r="AE15" s="20"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
       <c r="AF15" s="19"/>
       <c r="AG15" s="19"/>
       <c r="AH15" s="19"/>
@@ -2987,22 +2783,16 @@
       <c r="AO15" s="19"/>
       <c r="AP15" s="19"/>
       <c r="AQ15" s="19"/>
-      <c r="AR15" s="19"/>
-      <c r="AS15" s="19"/>
+      <c r="AR15" s="17"/>
+      <c r="AS15" s="17"/>
       <c r="AT15" s="17"/>
-      <c r="AU15" s="17"/>
+      <c r="AU15" s="21"/>
       <c r="AV15" s="17"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="17"/>
-      <c r="AZ15" s="17"/>
-      <c r="BA15" s="17"/>
-      <c r="BB15" s="18"/>
-      <c r="BC15" s="17"/>
-      <c r="BD15" s="18"/>
-      <c r="BE15" s="17"/>
-    </row>
-    <row r="16" spans="1:83" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW15" s="17"/>
+      <c r="AX15" s="18"/>
+      <c r="AY15" s="18"/>
+    </row>
+    <row r="16" spans="1:77" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="17"/>
       <c r="C16" s="17"/>
@@ -3012,28 +2802,28 @@
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="J16" s="18"/>
       <c r="K16" s="17"/>
       <c r="L16" s="18"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
       <c r="Q16" s="17"/>
-      <c r="R16" s="18"/>
+      <c r="R16" s="17"/>
       <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
+      <c r="T16" s="18"/>
       <c r="U16" s="17"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="18"/>
       <c r="X16" s="17"/>
       <c r="Y16" s="18"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="18"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
       <c r="AB16" s="20"/>
       <c r="AC16" s="20"/>
-      <c r="AD16" s="20"/>
-      <c r="AE16" s="20"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
       <c r="AF16" s="19"/>
       <c r="AG16" s="19"/>
       <c r="AH16" s="19"/>
@@ -3046,22 +2836,16 @@
       <c r="AO16" s="19"/>
       <c r="AP16" s="19"/>
       <c r="AQ16" s="19"/>
-      <c r="AR16" s="19"/>
-      <c r="AS16" s="19"/>
+      <c r="AR16" s="17"/>
+      <c r="AS16" s="17"/>
       <c r="AT16" s="17"/>
-      <c r="AU16" s="17"/>
+      <c r="AU16" s="21"/>
       <c r="AV16" s="17"/>
-      <c r="AW16" s="21"/>
-      <c r="AX16" s="21"/>
-      <c r="AY16" s="17"/>
-      <c r="AZ16" s="17"/>
-      <c r="BA16" s="17"/>
-      <c r="BB16" s="18"/>
-      <c r="BC16" s="17"/>
-      <c r="BD16" s="18"/>
-      <c r="BE16" s="17"/>
-    </row>
-    <row r="17" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW16" s="17"/>
+      <c r="AX16" s="18"/>
+      <c r="AY16" s="18"/>
+    </row>
+    <row r="17" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
@@ -3071,28 +2855,28 @@
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="J17" s="18"/>
       <c r="K17" s="17"/>
       <c r="L17" s="18"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
       <c r="Q17" s="17"/>
-      <c r="R17" s="18"/>
+      <c r="R17" s="17"/>
       <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="17"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="18"/>
       <c r="X17" s="17"/>
       <c r="Y17" s="18"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="18"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
       <c r="AB17" s="20"/>
       <c r="AC17" s="20"/>
-      <c r="AD17" s="20"/>
-      <c r="AE17" s="20"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
       <c r="AF17" s="19"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="19"/>
@@ -3105,22 +2889,16 @@
       <c r="AO17" s="19"/>
       <c r="AP17" s="19"/>
       <c r="AQ17" s="19"/>
-      <c r="AR17" s="19"/>
-      <c r="AS17" s="19"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="17"/>
       <c r="AT17" s="17"/>
-      <c r="AU17" s="17"/>
+      <c r="AU17" s="21"/>
       <c r="AV17" s="17"/>
-      <c r="AW17" s="21"/>
-      <c r="AX17" s="21"/>
-      <c r="AY17" s="17"/>
-      <c r="AZ17" s="17"/>
-      <c r="BA17" s="17"/>
-      <c r="BB17" s="18"/>
-      <c r="BC17" s="17"/>
-      <c r="BD17" s="18"/>
-      <c r="BE17" s="17"/>
-    </row>
-    <row r="18" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW17" s="17"/>
+      <c r="AX17" s="18"/>
+      <c r="AY17" s="18"/>
+    </row>
+    <row r="18" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -3130,28 +2908,28 @@
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="J18" s="18"/>
       <c r="K18" s="17"/>
       <c r="L18" s="18"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="18"/>
       <c r="Q18" s="17"/>
-      <c r="R18" s="18"/>
+      <c r="R18" s="17"/>
       <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
+      <c r="T18" s="18"/>
       <c r="U18" s="17"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="18"/>
       <c r="X18" s="17"/>
       <c r="Y18" s="18"/>
-      <c r="Z18" s="17"/>
-      <c r="AA18" s="18"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
       <c r="AB18" s="20"/>
       <c r="AC18" s="20"/>
-      <c r="AD18" s="20"/>
-      <c r="AE18" s="20"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
       <c r="AF18" s="19"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="19"/>
@@ -3164,22 +2942,16 @@
       <c r="AO18" s="19"/>
       <c r="AP18" s="19"/>
       <c r="AQ18" s="19"/>
-      <c r="AR18" s="19"/>
-      <c r="AS18" s="19"/>
+      <c r="AR18" s="17"/>
+      <c r="AS18" s="17"/>
       <c r="AT18" s="17"/>
-      <c r="AU18" s="17"/>
+      <c r="AU18" s="21"/>
       <c r="AV18" s="17"/>
-      <c r="AW18" s="21"/>
-      <c r="AX18" s="21"/>
-      <c r="AY18" s="17"/>
-      <c r="AZ18" s="17"/>
-      <c r="BA18" s="17"/>
-      <c r="BB18" s="18"/>
-      <c r="BC18" s="17"/>
-      <c r="BD18" s="18"/>
-      <c r="BE18" s="17"/>
-    </row>
-    <row r="19" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW18" s="17"/>
+      <c r="AX18" s="18"/>
+      <c r="AY18" s="18"/>
+    </row>
+    <row r="19" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -3189,28 +2961,28 @@
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="J19" s="18"/>
       <c r="K19" s="17"/>
       <c r="L19" s="18"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="19"/>
-      <c r="P19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="18"/>
       <c r="Q19" s="17"/>
-      <c r="R19" s="18"/>
+      <c r="R19" s="17"/>
       <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
+      <c r="T19" s="18"/>
       <c r="U19" s="17"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="18"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="18"/>
-      <c r="Z19" s="17"/>
-      <c r="AA19" s="18"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
       <c r="AB19" s="20"/>
       <c r="AC19" s="20"/>
-      <c r="AD19" s="20"/>
-      <c r="AE19" s="20"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
       <c r="AF19" s="19"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="19"/>
@@ -3223,22 +2995,16 @@
       <c r="AO19" s="19"/>
       <c r="AP19" s="19"/>
       <c r="AQ19" s="19"/>
-      <c r="AR19" s="19"/>
-      <c r="AS19" s="19"/>
+      <c r="AR19" s="17"/>
+      <c r="AS19" s="17"/>
       <c r="AT19" s="17"/>
-      <c r="AU19" s="17"/>
+      <c r="AU19" s="21"/>
       <c r="AV19" s="17"/>
-      <c r="AW19" s="21"/>
-      <c r="AX19" s="21"/>
-      <c r="AY19" s="17"/>
-      <c r="AZ19" s="17"/>
-      <c r="BA19" s="17"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="17"/>
-      <c r="BD19" s="18"/>
-      <c r="BE19" s="17"/>
-    </row>
-    <row r="20" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW19" s="17"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+    </row>
+    <row r="20" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -3248,28 +3014,28 @@
       <c r="G20" s="17"/>
       <c r="H20" s="17"/>
       <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="J20" s="18"/>
       <c r="K20" s="17"/>
       <c r="L20" s="18"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="19"/>
-      <c r="P20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
       <c r="Q20" s="17"/>
-      <c r="R20" s="18"/>
+      <c r="R20" s="17"/>
       <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="17"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
       <c r="X20" s="17"/>
       <c r="Y20" s="18"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="18"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
       <c r="AB20" s="20"/>
       <c r="AC20" s="20"/>
-      <c r="AD20" s="20"/>
-      <c r="AE20" s="20"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
       <c r="AF20" s="19"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="19"/>
@@ -3282,22 +3048,16 @@
       <c r="AO20" s="19"/>
       <c r="AP20" s="19"/>
       <c r="AQ20" s="19"/>
-      <c r="AR20" s="19"/>
-      <c r="AS20" s="19"/>
+      <c r="AR20" s="17"/>
+      <c r="AS20" s="17"/>
       <c r="AT20" s="17"/>
-      <c r="AU20" s="17"/>
+      <c r="AU20" s="21"/>
       <c r="AV20" s="17"/>
-      <c r="AW20" s="21"/>
-      <c r="AX20" s="21"/>
-      <c r="AY20" s="17"/>
-      <c r="AZ20" s="17"/>
-      <c r="BA20" s="17"/>
-      <c r="BB20" s="18"/>
-      <c r="BC20" s="17"/>
-      <c r="BD20" s="18"/>
-      <c r="BE20" s="17"/>
-    </row>
-    <row r="21" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW20" s="17"/>
+      <c r="AX20" s="18"/>
+      <c r="AY20" s="18"/>
+    </row>
+    <row r="21" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="17"/>
       <c r="C21" s="17"/>
@@ -3307,28 +3067,28 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="J21" s="18"/>
       <c r="K21" s="17"/>
       <c r="L21" s="18"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="18"/>
       <c r="Q21" s="17"/>
-      <c r="R21" s="18"/>
+      <c r="R21" s="17"/>
       <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
+      <c r="T21" s="18"/>
       <c r="U21" s="17"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="18"/>
       <c r="X21" s="17"/>
       <c r="Y21" s="18"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="18"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
       <c r="AB21" s="20"/>
       <c r="AC21" s="20"/>
-      <c r="AD21" s="20"/>
-      <c r="AE21" s="20"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
       <c r="AF21" s="19"/>
       <c r="AG21" s="19"/>
       <c r="AH21" s="19"/>
@@ -3341,22 +3101,16 @@
       <c r="AO21" s="19"/>
       <c r="AP21" s="19"/>
       <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="19"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="17"/>
       <c r="AT21" s="17"/>
-      <c r="AU21" s="17"/>
+      <c r="AU21" s="21"/>
       <c r="AV21" s="17"/>
-      <c r="AW21" s="21"/>
-      <c r="AX21" s="21"/>
-      <c r="AY21" s="17"/>
-      <c r="AZ21" s="17"/>
-      <c r="BA21" s="17"/>
-      <c r="BB21" s="18"/>
-      <c r="BC21" s="17"/>
-      <c r="BD21" s="18"/>
-      <c r="BE21" s="17"/>
-    </row>
-    <row r="22" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW21" s="17"/>
+      <c r="AX21" s="18"/>
+      <c r="AY21" s="18"/>
+    </row>
+    <row r="22" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="17"/>
       <c r="C22" s="17"/>
@@ -3366,28 +3120,28 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="J22" s="18"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="19"/>
-      <c r="P22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="18"/>
       <c r="Q22" s="17"/>
-      <c r="R22" s="18"/>
+      <c r="R22" s="17"/>
       <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
+      <c r="T22" s="18"/>
       <c r="U22" s="17"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="18"/>
       <c r="X22" s="17"/>
       <c r="Y22" s="18"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="18"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
       <c r="AB22" s="20"/>
       <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
       <c r="AF22" s="19"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="19"/>
@@ -3400,22 +3154,16 @@
       <c r="AO22" s="19"/>
       <c r="AP22" s="19"/>
       <c r="AQ22" s="19"/>
-      <c r="AR22" s="19"/>
-      <c r="AS22" s="19"/>
+      <c r="AR22" s="17"/>
+      <c r="AS22" s="17"/>
       <c r="AT22" s="17"/>
-      <c r="AU22" s="17"/>
+      <c r="AU22" s="21"/>
       <c r="AV22" s="17"/>
-      <c r="AW22" s="21"/>
-      <c r="AX22" s="21"/>
-      <c r="AY22" s="17"/>
-      <c r="AZ22" s="17"/>
-      <c r="BA22" s="17"/>
-      <c r="BB22" s="18"/>
-      <c r="BC22" s="17"/>
-      <c r="BD22" s="18"/>
-      <c r="BE22" s="17"/>
-    </row>
-    <row r="23" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW22" s="17"/>
+      <c r="AX22" s="18"/>
+      <c r="AY22" s="18"/>
+    </row>
+    <row r="23" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17"/>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -3425,28 +3173,28 @@
       <c r="G23" s="17"/>
       <c r="H23" s="17"/>
       <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="J23" s="18"/>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
-      <c r="M23" s="17"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="19"/>
-      <c r="P23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="18"/>
       <c r="Q23" s="17"/>
-      <c r="R23" s="18"/>
+      <c r="R23" s="17"/>
       <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
+      <c r="T23" s="18"/>
       <c r="U23" s="17"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="18"/>
       <c r="X23" s="17"/>
       <c r="Y23" s="18"/>
-      <c r="Z23" s="17"/>
-      <c r="AA23" s="18"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
       <c r="AB23" s="20"/>
       <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
       <c r="AF23" s="19"/>
       <c r="AG23" s="19"/>
       <c r="AH23" s="19"/>
@@ -3459,22 +3207,16 @@
       <c r="AO23" s="19"/>
       <c r="AP23" s="19"/>
       <c r="AQ23" s="19"/>
-      <c r="AR23" s="19"/>
-      <c r="AS23" s="19"/>
+      <c r="AR23" s="17"/>
+      <c r="AS23" s="17"/>
       <c r="AT23" s="17"/>
-      <c r="AU23" s="17"/>
+      <c r="AU23" s="21"/>
       <c r="AV23" s="17"/>
-      <c r="AW23" s="21"/>
-      <c r="AX23" s="21"/>
-      <c r="AY23" s="17"/>
-      <c r="AZ23" s="17"/>
-      <c r="BA23" s="17"/>
-      <c r="BB23" s="18"/>
-      <c r="BC23" s="17"/>
-      <c r="BD23" s="18"/>
-      <c r="BE23" s="17"/>
-    </row>
-    <row r="24" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW23" s="17"/>
+      <c r="AX23" s="18"/>
+      <c r="AY23" s="18"/>
+    </row>
+    <row r="24" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="17"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -3484,28 +3226,28 @@
       <c r="G24" s="17"/>
       <c r="H24" s="17"/>
       <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="J24" s="18"/>
       <c r="K24" s="17"/>
       <c r="L24" s="18"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="18"/>
       <c r="Q24" s="17"/>
-      <c r="R24" s="18"/>
+      <c r="R24" s="17"/>
       <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="17"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="18"/>
       <c r="X24" s="17"/>
       <c r="Y24" s="18"/>
-      <c r="Z24" s="17"/>
-      <c r="AA24" s="18"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
       <c r="AB24" s="20"/>
       <c r="AC24" s="20"/>
-      <c r="AD24" s="20"/>
-      <c r="AE24" s="20"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
       <c r="AF24" s="19"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="19"/>
@@ -3518,22 +3260,16 @@
       <c r="AO24" s="19"/>
       <c r="AP24" s="19"/>
       <c r="AQ24" s="19"/>
-      <c r="AR24" s="19"/>
-      <c r="AS24" s="19"/>
+      <c r="AR24" s="17"/>
+      <c r="AS24" s="17"/>
       <c r="AT24" s="17"/>
-      <c r="AU24" s="17"/>
+      <c r="AU24" s="21"/>
       <c r="AV24" s="17"/>
-      <c r="AW24" s="21"/>
-      <c r="AX24" s="21"/>
-      <c r="AY24" s="17"/>
-      <c r="AZ24" s="17"/>
-      <c r="BA24" s="17"/>
-      <c r="BB24" s="18"/>
-      <c r="BC24" s="17"/>
-      <c r="BD24" s="18"/>
-      <c r="BE24" s="17"/>
-    </row>
-    <row r="25" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW24" s="17"/>
+      <c r="AX24" s="18"/>
+      <c r="AY24" s="18"/>
+    </row>
+    <row r="25" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -3543,28 +3279,28 @@
       <c r="G25" s="17"/>
       <c r="H25" s="17"/>
       <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="J25" s="18"/>
       <c r="K25" s="17"/>
       <c r="L25" s="18"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="18"/>
       <c r="Q25" s="17"/>
-      <c r="R25" s="18"/>
+      <c r="R25" s="17"/>
       <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
+      <c r="T25" s="18"/>
       <c r="U25" s="17"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="18"/>
       <c r="X25" s="17"/>
       <c r="Y25" s="18"/>
-      <c r="Z25" s="17"/>
-      <c r="AA25" s="18"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
       <c r="AB25" s="20"/>
       <c r="AC25" s="20"/>
-      <c r="AD25" s="20"/>
-      <c r="AE25" s="20"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
       <c r="AF25" s="19"/>
       <c r="AG25" s="19"/>
       <c r="AH25" s="19"/>
@@ -3577,22 +3313,16 @@
       <c r="AO25" s="19"/>
       <c r="AP25" s="19"/>
       <c r="AQ25" s="19"/>
-      <c r="AR25" s="19"/>
-      <c r="AS25" s="19"/>
+      <c r="AR25" s="17"/>
+      <c r="AS25" s="17"/>
       <c r="AT25" s="17"/>
-      <c r="AU25" s="17"/>
+      <c r="AU25" s="21"/>
       <c r="AV25" s="17"/>
-      <c r="AW25" s="21"/>
-      <c r="AX25" s="21"/>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="17"/>
-      <c r="BA25" s="17"/>
-      <c r="BB25" s="18"/>
-      <c r="BC25" s="17"/>
-      <c r="BD25" s="18"/>
-      <c r="BE25" s="17"/>
-    </row>
-    <row r="26" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW25" s="17"/>
+      <c r="AX25" s="18"/>
+      <c r="AY25" s="18"/>
+    </row>
+    <row r="26" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -3602,28 +3332,28 @@
       <c r="G26" s="17"/>
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="J26" s="18"/>
       <c r="K26" s="17"/>
       <c r="L26" s="18"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="19"/>
-      <c r="P26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="18"/>
       <c r="Q26" s="17"/>
-      <c r="R26" s="18"/>
+      <c r="R26" s="17"/>
       <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="17"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="18"/>
       <c r="X26" s="17"/>
       <c r="Y26" s="18"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="18"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
       <c r="AB26" s="20"/>
       <c r="AC26" s="20"/>
-      <c r="AD26" s="20"/>
-      <c r="AE26" s="20"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
@@ -3636,22 +3366,16 @@
       <c r="AO26" s="19"/>
       <c r="AP26" s="19"/>
       <c r="AQ26" s="19"/>
-      <c r="AR26" s="19"/>
-      <c r="AS26" s="19"/>
+      <c r="AR26" s="17"/>
+      <c r="AS26" s="17"/>
       <c r="AT26" s="17"/>
-      <c r="AU26" s="17"/>
+      <c r="AU26" s="21"/>
       <c r="AV26" s="17"/>
-      <c r="AW26" s="21"/>
-      <c r="AX26" s="21"/>
-      <c r="AY26" s="17"/>
-      <c r="AZ26" s="17"/>
-      <c r="BA26" s="17"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="17"/>
-      <c r="BD26" s="18"/>
-      <c r="BE26" s="17"/>
-    </row>
-    <row r="27" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW26" s="17"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+    </row>
+    <row r="27" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -3661,28 +3385,28 @@
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="J27" s="18"/>
       <c r="K27" s="17"/>
       <c r="L27" s="18"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="18"/>
       <c r="Q27" s="17"/>
-      <c r="R27" s="18"/>
+      <c r="R27" s="17"/>
       <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
+      <c r="T27" s="18"/>
       <c r="U27" s="17"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="18"/>
       <c r="X27" s="17"/>
       <c r="Y27" s="18"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="18"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
       <c r="AB27" s="20"/>
       <c r="AC27" s="20"/>
-      <c r="AD27" s="20"/>
-      <c r="AE27" s="20"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
       <c r="AF27" s="19"/>
       <c r="AG27" s="19"/>
       <c r="AH27" s="19"/>
@@ -3695,22 +3419,16 @@
       <c r="AO27" s="19"/>
       <c r="AP27" s="19"/>
       <c r="AQ27" s="19"/>
-      <c r="AR27" s="19"/>
-      <c r="AS27" s="19"/>
+      <c r="AR27" s="17"/>
+      <c r="AS27" s="17"/>
       <c r="AT27" s="17"/>
-      <c r="AU27" s="17"/>
+      <c r="AU27" s="21"/>
       <c r="AV27" s="17"/>
-      <c r="AW27" s="21"/>
-      <c r="AX27" s="21"/>
-      <c r="AY27" s="17"/>
-      <c r="AZ27" s="17"/>
-      <c r="BA27" s="17"/>
-      <c r="BB27" s="18"/>
-      <c r="BC27" s="17"/>
-      <c r="BD27" s="18"/>
-      <c r="BE27" s="17"/>
-    </row>
-    <row r="28" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW27" s="17"/>
+      <c r="AX27" s="18"/>
+      <c r="AY27" s="18"/>
+    </row>
+    <row r="28" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="17"/>
@@ -3720,28 +3438,28 @@
       <c r="G28" s="17"/>
       <c r="H28" s="17"/>
       <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="J28" s="18"/>
       <c r="K28" s="17"/>
       <c r="L28" s="18"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="18"/>
       <c r="Q28" s="17"/>
-      <c r="R28" s="18"/>
+      <c r="R28" s="17"/>
       <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
+      <c r="T28" s="18"/>
       <c r="U28" s="17"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="18"/>
       <c r="X28" s="17"/>
       <c r="Y28" s="18"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="18"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
       <c r="AB28" s="20"/>
       <c r="AC28" s="20"/>
-      <c r="AD28" s="20"/>
-      <c r="AE28" s="20"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
       <c r="AF28" s="19"/>
       <c r="AG28" s="19"/>
       <c r="AH28" s="19"/>
@@ -3754,22 +3472,16 @@
       <c r="AO28" s="19"/>
       <c r="AP28" s="19"/>
       <c r="AQ28" s="19"/>
-      <c r="AR28" s="19"/>
-      <c r="AS28" s="19"/>
+      <c r="AR28" s="17"/>
+      <c r="AS28" s="17"/>
       <c r="AT28" s="17"/>
-      <c r="AU28" s="17"/>
+      <c r="AU28" s="21"/>
       <c r="AV28" s="17"/>
-      <c r="AW28" s="21"/>
-      <c r="AX28" s="21"/>
-      <c r="AY28" s="17"/>
-      <c r="AZ28" s="17"/>
-      <c r="BA28" s="17"/>
-      <c r="BB28" s="18"/>
-      <c r="BC28" s="17"/>
-      <c r="BD28" s="18"/>
-      <c r="BE28" s="17"/>
-    </row>
-    <row r="29" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW28" s="17"/>
+      <c r="AX28" s="18"/>
+      <c r="AY28" s="18"/>
+    </row>
+    <row r="29" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
@@ -3779,28 +3491,28 @@
       <c r="G29" s="17"/>
       <c r="H29" s="17"/>
       <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="J29" s="18"/>
       <c r="K29" s="17"/>
       <c r="L29" s="18"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
       <c r="Q29" s="17"/>
-      <c r="R29" s="18"/>
+      <c r="R29" s="17"/>
       <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
+      <c r="T29" s="18"/>
       <c r="U29" s="17"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="18"/>
       <c r="X29" s="17"/>
       <c r="Y29" s="18"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="18"/>
+      <c r="Z29" s="20"/>
+      <c r="AA29" s="20"/>
       <c r="AB29" s="20"/>
       <c r="AC29" s="20"/>
-      <c r="AD29" s="20"/>
-      <c r="AE29" s="20"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
       <c r="AF29" s="19"/>
       <c r="AG29" s="19"/>
       <c r="AH29" s="19"/>
@@ -3813,22 +3525,16 @@
       <c r="AO29" s="19"/>
       <c r="AP29" s="19"/>
       <c r="AQ29" s="19"/>
-      <c r="AR29" s="19"/>
-      <c r="AS29" s="19"/>
+      <c r="AR29" s="17"/>
+      <c r="AS29" s="17"/>
       <c r="AT29" s="17"/>
-      <c r="AU29" s="17"/>
+      <c r="AU29" s="21"/>
       <c r="AV29" s="17"/>
-      <c r="AW29" s="21"/>
-      <c r="AX29" s="21"/>
-      <c r="AY29" s="17"/>
-      <c r="AZ29" s="17"/>
-      <c r="BA29" s="17"/>
-      <c r="BB29" s="18"/>
-      <c r="BC29" s="17"/>
-      <c r="BD29" s="18"/>
-      <c r="BE29" s="17"/>
-    </row>
-    <row r="30" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW29" s="17"/>
+      <c r="AX29" s="18"/>
+      <c r="AY29" s="18"/>
+    </row>
+    <row r="30" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
@@ -3838,28 +3544,28 @@
       <c r="G30" s="17"/>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="J30" s="18"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="18"/>
       <c r="Q30" s="17"/>
-      <c r="R30" s="18"/>
+      <c r="R30" s="17"/>
       <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
+      <c r="T30" s="18"/>
       <c r="U30" s="17"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="18"/>
       <c r="X30" s="17"/>
       <c r="Y30" s="18"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="18"/>
+      <c r="Z30" s="20"/>
+      <c r="AA30" s="20"/>
       <c r="AB30" s="20"/>
       <c r="AC30" s="20"/>
-      <c r="AD30" s="20"/>
-      <c r="AE30" s="20"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
@@ -3872,22 +3578,16 @@
       <c r="AO30" s="19"/>
       <c r="AP30" s="19"/>
       <c r="AQ30" s="19"/>
-      <c r="AR30" s="19"/>
-      <c r="AS30" s="19"/>
+      <c r="AR30" s="17"/>
+      <c r="AS30" s="17"/>
       <c r="AT30" s="17"/>
-      <c r="AU30" s="17"/>
+      <c r="AU30" s="21"/>
       <c r="AV30" s="17"/>
-      <c r="AW30" s="21"/>
-      <c r="AX30" s="21"/>
-      <c r="AY30" s="17"/>
-      <c r="AZ30" s="17"/>
-      <c r="BA30" s="17"/>
-      <c r="BB30" s="18"/>
-      <c r="BC30" s="17"/>
-      <c r="BD30" s="18"/>
-      <c r="BE30" s="17"/>
-    </row>
-    <row r="31" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW30" s="17"/>
+      <c r="AX30" s="18"/>
+      <c r="AY30" s="18"/>
+    </row>
+    <row r="31" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
@@ -3897,28 +3597,28 @@
       <c r="G31" s="17"/>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="J31" s="18"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
-      <c r="M31" s="17"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="18"/>
       <c r="Q31" s="17"/>
-      <c r="R31" s="18"/>
+      <c r="R31" s="17"/>
       <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
+      <c r="T31" s="18"/>
       <c r="U31" s="17"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="18"/>
       <c r="X31" s="17"/>
       <c r="Y31" s="18"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="18"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
       <c r="AB31" s="20"/>
       <c r="AC31" s="20"/>
-      <c r="AD31" s="20"/>
-      <c r="AE31" s="20"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
       <c r="AF31" s="19"/>
       <c r="AG31" s="19"/>
       <c r="AH31" s="19"/>
@@ -3931,22 +3631,16 @@
       <c r="AO31" s="19"/>
       <c r="AP31" s="19"/>
       <c r="AQ31" s="19"/>
-      <c r="AR31" s="19"/>
-      <c r="AS31" s="19"/>
+      <c r="AR31" s="17"/>
+      <c r="AS31" s="17"/>
       <c r="AT31" s="17"/>
-      <c r="AU31" s="17"/>
+      <c r="AU31" s="21"/>
       <c r="AV31" s="17"/>
-      <c r="AW31" s="21"/>
-      <c r="AX31" s="21"/>
-      <c r="AY31" s="17"/>
-      <c r="AZ31" s="17"/>
-      <c r="BA31" s="17"/>
-      <c r="BB31" s="18"/>
-      <c r="BC31" s="17"/>
-      <c r="BD31" s="18"/>
-      <c r="BE31" s="17"/>
-    </row>
-    <row r="32" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW31" s="17"/>
+      <c r="AX31" s="18"/>
+      <c r="AY31" s="18"/>
+    </row>
+    <row r="32" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
@@ -3956,28 +3650,28 @@
       <c r="G32" s="17"/>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="J32" s="18"/>
       <c r="K32" s="17"/>
       <c r="L32" s="18"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="18"/>
       <c r="Q32" s="17"/>
-      <c r="R32" s="18"/>
+      <c r="R32" s="17"/>
       <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
+      <c r="T32" s="18"/>
       <c r="U32" s="17"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="18"/>
       <c r="X32" s="17"/>
       <c r="Y32" s="18"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="18"/>
+      <c r="Z32" s="20"/>
+      <c r="AA32" s="20"/>
       <c r="AB32" s="20"/>
       <c r="AC32" s="20"/>
-      <c r="AD32" s="20"/>
-      <c r="AE32" s="20"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
       <c r="AF32" s="19"/>
       <c r="AG32" s="19"/>
       <c r="AH32" s="19"/>
@@ -3990,22 +3684,16 @@
       <c r="AO32" s="19"/>
       <c r="AP32" s="19"/>
       <c r="AQ32" s="19"/>
-      <c r="AR32" s="19"/>
-      <c r="AS32" s="19"/>
+      <c r="AR32" s="17"/>
+      <c r="AS32" s="17"/>
       <c r="AT32" s="17"/>
-      <c r="AU32" s="17"/>
+      <c r="AU32" s="21"/>
       <c r="AV32" s="17"/>
-      <c r="AW32" s="21"/>
-      <c r="AX32" s="21"/>
-      <c r="AY32" s="17"/>
-      <c r="AZ32" s="17"/>
-      <c r="BA32" s="17"/>
-      <c r="BB32" s="18"/>
-      <c r="BC32" s="17"/>
-      <c r="BD32" s="18"/>
-      <c r="BE32" s="17"/>
-    </row>
-    <row r="33" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW32" s="17"/>
+      <c r="AX32" s="18"/>
+      <c r="AY32" s="18"/>
+    </row>
+    <row r="33" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="17"/>
@@ -4015,28 +3703,28 @@
       <c r="G33" s="17"/>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="J33" s="18"/>
       <c r="K33" s="17"/>
       <c r="L33" s="18"/>
-      <c r="M33" s="17"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="18"/>
       <c r="Q33" s="17"/>
-      <c r="R33" s="18"/>
+      <c r="R33" s="17"/>
       <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
+      <c r="T33" s="18"/>
       <c r="U33" s="17"/>
-      <c r="V33" s="18"/>
-      <c r="W33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="18"/>
       <c r="X33" s="17"/>
       <c r="Y33" s="18"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="18"/>
+      <c r="Z33" s="20"/>
+      <c r="AA33" s="20"/>
       <c r="AB33" s="20"/>
       <c r="AC33" s="20"/>
-      <c r="AD33" s="20"/>
-      <c r="AE33" s="20"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
       <c r="AF33" s="19"/>
       <c r="AG33" s="19"/>
       <c r="AH33" s="19"/>
@@ -4049,22 +3737,16 @@
       <c r="AO33" s="19"/>
       <c r="AP33" s="19"/>
       <c r="AQ33" s="19"/>
-      <c r="AR33" s="19"/>
-      <c r="AS33" s="19"/>
+      <c r="AR33" s="17"/>
+      <c r="AS33" s="17"/>
       <c r="AT33" s="17"/>
-      <c r="AU33" s="17"/>
+      <c r="AU33" s="21"/>
       <c r="AV33" s="17"/>
-      <c r="AW33" s="21"/>
-      <c r="AX33" s="21"/>
-      <c r="AY33" s="17"/>
-      <c r="AZ33" s="17"/>
-      <c r="BA33" s="17"/>
-      <c r="BB33" s="18"/>
-      <c r="BC33" s="17"/>
-      <c r="BD33" s="18"/>
-      <c r="BE33" s="17"/>
-    </row>
-    <row r="34" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW33" s="17"/>
+      <c r="AX33" s="18"/>
+      <c r="AY33" s="18"/>
+    </row>
+    <row r="34" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -4074,28 +3756,28 @@
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
       <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="J34" s="18"/>
       <c r="K34" s="17"/>
       <c r="L34" s="18"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="18"/>
       <c r="Q34" s="17"/>
-      <c r="R34" s="18"/>
+      <c r="R34" s="17"/>
       <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
+      <c r="T34" s="18"/>
       <c r="U34" s="17"/>
-      <c r="V34" s="18"/>
-      <c r="W34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="18"/>
       <c r="X34" s="17"/>
       <c r="Y34" s="18"/>
-      <c r="Z34" s="17"/>
-      <c r="AA34" s="18"/>
+      <c r="Z34" s="20"/>
+      <c r="AA34" s="20"/>
       <c r="AB34" s="20"/>
       <c r="AC34" s="20"/>
-      <c r="AD34" s="20"/>
-      <c r="AE34" s="20"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
       <c r="AF34" s="19"/>
       <c r="AG34" s="19"/>
       <c r="AH34" s="19"/>
@@ -4108,22 +3790,16 @@
       <c r="AO34" s="19"/>
       <c r="AP34" s="19"/>
       <c r="AQ34" s="19"/>
-      <c r="AR34" s="19"/>
-      <c r="AS34" s="19"/>
+      <c r="AR34" s="17"/>
+      <c r="AS34" s="17"/>
       <c r="AT34" s="17"/>
-      <c r="AU34" s="17"/>
+      <c r="AU34" s="21"/>
       <c r="AV34" s="17"/>
-      <c r="AW34" s="21"/>
-      <c r="AX34" s="21"/>
-      <c r="AY34" s="17"/>
-      <c r="AZ34" s="17"/>
-      <c r="BA34" s="17"/>
-      <c r="BB34" s="18"/>
-      <c r="BC34" s="17"/>
-      <c r="BD34" s="18"/>
-      <c r="BE34" s="17"/>
-    </row>
-    <row r="35" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW34" s="17"/>
+      <c r="AX34" s="18"/>
+      <c r="AY34" s="18"/>
+    </row>
+    <row r="35" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -4133,28 +3809,28 @@
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
       <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="J35" s="18"/>
       <c r="K35" s="17"/>
       <c r="L35" s="18"/>
-      <c r="M35" s="17"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="18"/>
       <c r="Q35" s="17"/>
-      <c r="R35" s="18"/>
+      <c r="R35" s="17"/>
       <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
+      <c r="T35" s="18"/>
       <c r="U35" s="17"/>
-      <c r="V35" s="18"/>
-      <c r="W35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="18"/>
       <c r="X35" s="17"/>
       <c r="Y35" s="18"/>
-      <c r="Z35" s="17"/>
-      <c r="AA35" s="18"/>
+      <c r="Z35" s="20"/>
+      <c r="AA35" s="20"/>
       <c r="AB35" s="20"/>
       <c r="AC35" s="20"/>
-      <c r="AD35" s="20"/>
-      <c r="AE35" s="20"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
       <c r="AF35" s="19"/>
       <c r="AG35" s="19"/>
       <c r="AH35" s="19"/>
@@ -4167,22 +3843,16 @@
       <c r="AO35" s="19"/>
       <c r="AP35" s="19"/>
       <c r="AQ35" s="19"/>
-      <c r="AR35" s="19"/>
-      <c r="AS35" s="19"/>
+      <c r="AR35" s="17"/>
+      <c r="AS35" s="17"/>
       <c r="AT35" s="17"/>
-      <c r="AU35" s="17"/>
+      <c r="AU35" s="21"/>
       <c r="AV35" s="17"/>
-      <c r="AW35" s="21"/>
-      <c r="AX35" s="21"/>
-      <c r="AY35" s="17"/>
-      <c r="AZ35" s="17"/>
-      <c r="BA35" s="17"/>
-      <c r="BB35" s="18"/>
-      <c r="BC35" s="17"/>
-      <c r="BD35" s="18"/>
-      <c r="BE35" s="17"/>
-    </row>
-    <row r="36" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW35" s="17"/>
+      <c r="AX35" s="18"/>
+      <c r="AY35" s="18"/>
+    </row>
+    <row r="36" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -4192,28 +3862,28 @@
       <c r="G36" s="17"/>
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="J36" s="18"/>
       <c r="K36" s="17"/>
       <c r="L36" s="18"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="18"/>
       <c r="Q36" s="17"/>
-      <c r="R36" s="18"/>
+      <c r="R36" s="17"/>
       <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
+      <c r="T36" s="18"/>
       <c r="U36" s="17"/>
-      <c r="V36" s="18"/>
-      <c r="W36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="18"/>
       <c r="X36" s="17"/>
       <c r="Y36" s="18"/>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="18"/>
+      <c r="Z36" s="20"/>
+      <c r="AA36" s="20"/>
       <c r="AB36" s="20"/>
       <c r="AC36" s="20"/>
-      <c r="AD36" s="20"/>
-      <c r="AE36" s="20"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
       <c r="AF36" s="19"/>
       <c r="AG36" s="19"/>
       <c r="AH36" s="19"/>
@@ -4226,22 +3896,16 @@
       <c r="AO36" s="19"/>
       <c r="AP36" s="19"/>
       <c r="AQ36" s="19"/>
-      <c r="AR36" s="19"/>
-      <c r="AS36" s="19"/>
+      <c r="AR36" s="17"/>
+      <c r="AS36" s="17"/>
       <c r="AT36" s="17"/>
-      <c r="AU36" s="17"/>
+      <c r="AU36" s="21"/>
       <c r="AV36" s="17"/>
-      <c r="AW36" s="21"/>
-      <c r="AX36" s="21"/>
-      <c r="AY36" s="17"/>
-      <c r="AZ36" s="17"/>
-      <c r="BA36" s="17"/>
-      <c r="BB36" s="18"/>
-      <c r="BC36" s="17"/>
-      <c r="BD36" s="18"/>
-      <c r="BE36" s="17"/>
-    </row>
-    <row r="37" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW36" s="17"/>
+      <c r="AX36" s="18"/>
+      <c r="AY36" s="18"/>
+    </row>
+    <row r="37" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -4251,28 +3915,28 @@
       <c r="G37" s="17"/>
       <c r="H37" s="17"/>
       <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="J37" s="18"/>
       <c r="K37" s="17"/>
       <c r="L37" s="18"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="18"/>
       <c r="Q37" s="17"/>
-      <c r="R37" s="18"/>
+      <c r="R37" s="17"/>
       <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
+      <c r="T37" s="18"/>
       <c r="U37" s="17"/>
-      <c r="V37" s="18"/>
-      <c r="W37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="18"/>
       <c r="X37" s="17"/>
       <c r="Y37" s="18"/>
-      <c r="Z37" s="17"/>
-      <c r="AA37" s="18"/>
+      <c r="Z37" s="20"/>
+      <c r="AA37" s="20"/>
       <c r="AB37" s="20"/>
       <c r="AC37" s="20"/>
-      <c r="AD37" s="20"/>
-      <c r="AE37" s="20"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
       <c r="AF37" s="19"/>
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
@@ -4285,22 +3949,16 @@
       <c r="AO37" s="19"/>
       <c r="AP37" s="19"/>
       <c r="AQ37" s="19"/>
-      <c r="AR37" s="19"/>
-      <c r="AS37" s="19"/>
+      <c r="AR37" s="17"/>
+      <c r="AS37" s="17"/>
       <c r="AT37" s="17"/>
-      <c r="AU37" s="17"/>
+      <c r="AU37" s="21"/>
       <c r="AV37" s="17"/>
-      <c r="AW37" s="21"/>
-      <c r="AX37" s="21"/>
-      <c r="AY37" s="17"/>
-      <c r="AZ37" s="17"/>
-      <c r="BA37" s="17"/>
-      <c r="BB37" s="18"/>
-      <c r="BC37" s="17"/>
-      <c r="BD37" s="18"/>
-      <c r="BE37" s="17"/>
-    </row>
-    <row r="38" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW37" s="17"/>
+      <c r="AX37" s="18"/>
+      <c r="AY37" s="18"/>
+    </row>
+    <row r="38" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -4310,28 +3968,28 @@
       <c r="G38" s="17"/>
       <c r="H38" s="17"/>
       <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="J38" s="18"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
-      <c r="M38" s="17"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="18"/>
       <c r="Q38" s="17"/>
-      <c r="R38" s="18"/>
+      <c r="R38" s="17"/>
       <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
+      <c r="T38" s="18"/>
       <c r="U38" s="17"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="18"/>
       <c r="X38" s="17"/>
       <c r="Y38" s="18"/>
-      <c r="Z38" s="17"/>
-      <c r="AA38" s="18"/>
+      <c r="Z38" s="20"/>
+      <c r="AA38" s="20"/>
       <c r="AB38" s="20"/>
       <c r="AC38" s="20"/>
-      <c r="AD38" s="20"/>
-      <c r="AE38" s="20"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
       <c r="AF38" s="19"/>
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
@@ -4344,22 +4002,16 @@
       <c r="AO38" s="19"/>
       <c r="AP38" s="19"/>
       <c r="AQ38" s="19"/>
-      <c r="AR38" s="19"/>
-      <c r="AS38" s="19"/>
+      <c r="AR38" s="17"/>
+      <c r="AS38" s="17"/>
       <c r="AT38" s="17"/>
-      <c r="AU38" s="17"/>
+      <c r="AU38" s="21"/>
       <c r="AV38" s="17"/>
-      <c r="AW38" s="21"/>
-      <c r="AX38" s="21"/>
-      <c r="AY38" s="17"/>
-      <c r="AZ38" s="17"/>
-      <c r="BA38" s="17"/>
-      <c r="BB38" s="18"/>
-      <c r="BC38" s="17"/>
-      <c r="BD38" s="18"/>
-      <c r="BE38" s="17"/>
-    </row>
-    <row r="39" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW38" s="17"/>
+      <c r="AX38" s="18"/>
+      <c r="AY38" s="18"/>
+    </row>
+    <row r="39" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -4369,28 +4021,28 @@
       <c r="G39" s="17"/>
       <c r="H39" s="17"/>
       <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="J39" s="18"/>
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
-      <c r="M39" s="17"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="18"/>
       <c r="Q39" s="17"/>
-      <c r="R39" s="18"/>
+      <c r="R39" s="17"/>
       <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
+      <c r="T39" s="18"/>
       <c r="U39" s="17"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="18"/>
       <c r="X39" s="17"/>
       <c r="Y39" s="18"/>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="18"/>
+      <c r="Z39" s="20"/>
+      <c r="AA39" s="20"/>
       <c r="AB39" s="20"/>
       <c r="AC39" s="20"/>
-      <c r="AD39" s="20"/>
-      <c r="AE39" s="20"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
       <c r="AF39" s="19"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
@@ -4403,22 +4055,16 @@
       <c r="AO39" s="19"/>
       <c r="AP39" s="19"/>
       <c r="AQ39" s="19"/>
-      <c r="AR39" s="19"/>
-      <c r="AS39" s="19"/>
+      <c r="AR39" s="17"/>
+      <c r="AS39" s="17"/>
       <c r="AT39" s="17"/>
-      <c r="AU39" s="17"/>
+      <c r="AU39" s="21"/>
       <c r="AV39" s="17"/>
-      <c r="AW39" s="21"/>
-      <c r="AX39" s="21"/>
-      <c r="AY39" s="17"/>
-      <c r="AZ39" s="17"/>
-      <c r="BA39" s="17"/>
-      <c r="BB39" s="18"/>
-      <c r="BC39" s="17"/>
-      <c r="BD39" s="18"/>
-      <c r="BE39" s="17"/>
-    </row>
-    <row r="40" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW39" s="17"/>
+      <c r="AX39" s="18"/>
+      <c r="AY39" s="18"/>
+    </row>
+    <row r="40" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -4428,28 +4074,28 @@
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="17"/>
       <c r="L40" s="18"/>
-      <c r="M40" s="17"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="18"/>
       <c r="Q40" s="17"/>
-      <c r="R40" s="18"/>
+      <c r="R40" s="17"/>
       <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
+      <c r="T40" s="18"/>
       <c r="U40" s="17"/>
-      <c r="V40" s="18"/>
-      <c r="W40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="18"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="18"/>
-      <c r="Z40" s="17"/>
-      <c r="AA40" s="18"/>
+      <c r="Z40" s="20"/>
+      <c r="AA40" s="20"/>
       <c r="AB40" s="20"/>
       <c r="AC40" s="20"/>
-      <c r="AD40" s="20"/>
-      <c r="AE40" s="20"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
       <c r="AF40" s="19"/>
       <c r="AG40" s="19"/>
       <c r="AH40" s="19"/>
@@ -4462,22 +4108,16 @@
       <c r="AO40" s="19"/>
       <c r="AP40" s="19"/>
       <c r="AQ40" s="19"/>
-      <c r="AR40" s="19"/>
-      <c r="AS40" s="19"/>
+      <c r="AR40" s="17"/>
+      <c r="AS40" s="17"/>
       <c r="AT40" s="17"/>
-      <c r="AU40" s="17"/>
+      <c r="AU40" s="21"/>
       <c r="AV40" s="17"/>
-      <c r="AW40" s="21"/>
-      <c r="AX40" s="21"/>
-      <c r="AY40" s="17"/>
-      <c r="AZ40" s="17"/>
-      <c r="BA40" s="17"/>
-      <c r="BB40" s="18"/>
-      <c r="BC40" s="17"/>
-      <c r="BD40" s="18"/>
-      <c r="BE40" s="17"/>
-    </row>
-    <row r="41" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW40" s="17"/>
+      <c r="AX40" s="18"/>
+      <c r="AY40" s="18"/>
+    </row>
+    <row r="41" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -4487,28 +4127,28 @@
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="17"/>
       <c r="L41" s="18"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="18"/>
       <c r="Q41" s="17"/>
-      <c r="R41" s="18"/>
+      <c r="R41" s="17"/>
       <c r="S41" s="17"/>
-      <c r="T41" s="17"/>
+      <c r="T41" s="18"/>
       <c r="U41" s="17"/>
-      <c r="V41" s="18"/>
-      <c r="W41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="18"/>
       <c r="X41" s="17"/>
       <c r="Y41" s="18"/>
-      <c r="Z41" s="17"/>
-      <c r="AA41" s="18"/>
+      <c r="Z41" s="20"/>
+      <c r="AA41" s="20"/>
       <c r="AB41" s="20"/>
       <c r="AC41" s="20"/>
-      <c r="AD41" s="20"/>
-      <c r="AE41" s="20"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
       <c r="AF41" s="19"/>
       <c r="AG41" s="19"/>
       <c r="AH41" s="19"/>
@@ -4521,22 +4161,16 @@
       <c r="AO41" s="19"/>
       <c r="AP41" s="19"/>
       <c r="AQ41" s="19"/>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
+      <c r="AR41" s="17"/>
+      <c r="AS41" s="17"/>
       <c r="AT41" s="17"/>
-      <c r="AU41" s="17"/>
+      <c r="AU41" s="21"/>
       <c r="AV41" s="17"/>
-      <c r="AW41" s="21"/>
-      <c r="AX41" s="21"/>
-      <c r="AY41" s="17"/>
-      <c r="AZ41" s="17"/>
-      <c r="BA41" s="17"/>
-      <c r="BB41" s="18"/>
-      <c r="BC41" s="17"/>
-      <c r="BD41" s="18"/>
-      <c r="BE41" s="17"/>
-    </row>
-    <row r="42" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW41" s="17"/>
+      <c r="AX41" s="18"/>
+      <c r="AY41" s="18"/>
+    </row>
+    <row r="42" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -4546,28 +4180,28 @@
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="J42" s="18"/>
       <c r="K42" s="17"/>
       <c r="L42" s="18"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
       <c r="Q42" s="17"/>
-      <c r="R42" s="18"/>
+      <c r="R42" s="17"/>
       <c r="S42" s="17"/>
-      <c r="T42" s="17"/>
+      <c r="T42" s="18"/>
       <c r="U42" s="17"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="18"/>
       <c r="X42" s="17"/>
       <c r="Y42" s="18"/>
-      <c r="Z42" s="17"/>
-      <c r="AA42" s="18"/>
+      <c r="Z42" s="20"/>
+      <c r="AA42" s="20"/>
       <c r="AB42" s="20"/>
       <c r="AC42" s="20"/>
-      <c r="AD42" s="20"/>
-      <c r="AE42" s="20"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
       <c r="AF42" s="19"/>
       <c r="AG42" s="19"/>
       <c r="AH42" s="19"/>
@@ -4580,22 +4214,16 @@
       <c r="AO42" s="19"/>
       <c r="AP42" s="19"/>
       <c r="AQ42" s="19"/>
-      <c r="AR42" s="19"/>
-      <c r="AS42" s="19"/>
+      <c r="AR42" s="17"/>
+      <c r="AS42" s="17"/>
       <c r="AT42" s="17"/>
-      <c r="AU42" s="17"/>
+      <c r="AU42" s="21"/>
       <c r="AV42" s="17"/>
-      <c r="AW42" s="21"/>
-      <c r="AX42" s="21"/>
-      <c r="AY42" s="17"/>
-      <c r="AZ42" s="17"/>
-      <c r="BA42" s="17"/>
-      <c r="BB42" s="18"/>
-      <c r="BC42" s="17"/>
-      <c r="BD42" s="18"/>
-      <c r="BE42" s="17"/>
-    </row>
-    <row r="43" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW42" s="17"/>
+      <c r="AX42" s="18"/>
+      <c r="AY42" s="18"/>
+    </row>
+    <row r="43" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -4605,28 +4233,28 @@
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="J43" s="18"/>
       <c r="K43" s="17"/>
       <c r="L43" s="18"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="18"/>
       <c r="Q43" s="17"/>
-      <c r="R43" s="18"/>
+      <c r="R43" s="17"/>
       <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
+      <c r="T43" s="18"/>
       <c r="U43" s="17"/>
-      <c r="V43" s="18"/>
-      <c r="W43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="18"/>
       <c r="X43" s="17"/>
       <c r="Y43" s="18"/>
-      <c r="Z43" s="17"/>
-      <c r="AA43" s="18"/>
+      <c r="Z43" s="20"/>
+      <c r="AA43" s="20"/>
       <c r="AB43" s="20"/>
       <c r="AC43" s="20"/>
-      <c r="AD43" s="20"/>
-      <c r="AE43" s="20"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="19"/>
       <c r="AF43" s="19"/>
       <c r="AG43" s="19"/>
       <c r="AH43" s="19"/>
@@ -4639,22 +4267,16 @@
       <c r="AO43" s="19"/>
       <c r="AP43" s="19"/>
       <c r="AQ43" s="19"/>
-      <c r="AR43" s="19"/>
-      <c r="AS43" s="19"/>
+      <c r="AR43" s="17"/>
+      <c r="AS43" s="17"/>
       <c r="AT43" s="17"/>
-      <c r="AU43" s="17"/>
+      <c r="AU43" s="21"/>
       <c r="AV43" s="17"/>
-      <c r="AW43" s="21"/>
-      <c r="AX43" s="21"/>
-      <c r="AY43" s="17"/>
-      <c r="AZ43" s="17"/>
-      <c r="BA43" s="17"/>
-      <c r="BB43" s="18"/>
-      <c r="BC43" s="17"/>
-      <c r="BD43" s="18"/>
-      <c r="BE43" s="17"/>
-    </row>
-    <row r="44" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW43" s="17"/>
+      <c r="AX43" s="18"/>
+      <c r="AY43" s="18"/>
+    </row>
+    <row r="44" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -4664,28 +4286,28 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="J44" s="18"/>
       <c r="K44" s="17"/>
       <c r="L44" s="18"/>
-      <c r="M44" s="17"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
+      <c r="M44" s="19"/>
+      <c r="N44" s="19"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="18"/>
       <c r="Q44" s="17"/>
-      <c r="R44" s="18"/>
+      <c r="R44" s="17"/>
       <c r="S44" s="17"/>
-      <c r="T44" s="17"/>
+      <c r="T44" s="18"/>
       <c r="U44" s="17"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="18"/>
       <c r="X44" s="17"/>
       <c r="Y44" s="18"/>
-      <c r="Z44" s="17"/>
-      <c r="AA44" s="18"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
       <c r="AB44" s="20"/>
       <c r="AC44" s="20"/>
-      <c r="AD44" s="20"/>
-      <c r="AE44" s="20"/>
+      <c r="AD44" s="19"/>
+      <c r="AE44" s="19"/>
       <c r="AF44" s="19"/>
       <c r="AG44" s="19"/>
       <c r="AH44" s="19"/>
@@ -4698,22 +4320,16 @@
       <c r="AO44" s="19"/>
       <c r="AP44" s="19"/>
       <c r="AQ44" s="19"/>
-      <c r="AR44" s="19"/>
-      <c r="AS44" s="19"/>
+      <c r="AR44" s="17"/>
+      <c r="AS44" s="17"/>
       <c r="AT44" s="17"/>
-      <c r="AU44" s="17"/>
+      <c r="AU44" s="21"/>
       <c r="AV44" s="17"/>
-      <c r="AW44" s="21"/>
-      <c r="AX44" s="21"/>
-      <c r="AY44" s="17"/>
-      <c r="AZ44" s="17"/>
-      <c r="BA44" s="17"/>
-      <c r="BB44" s="18"/>
-      <c r="BC44" s="17"/>
-      <c r="BD44" s="18"/>
-      <c r="BE44" s="17"/>
-    </row>
-    <row r="45" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW44" s="17"/>
+      <c r="AX44" s="18"/>
+      <c r="AY44" s="18"/>
+    </row>
+    <row r="45" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -4723,28 +4339,28 @@
       <c r="G45" s="17"/>
       <c r="H45" s="17"/>
       <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="J45" s="18"/>
       <c r="K45" s="17"/>
       <c r="L45" s="18"/>
-      <c r="M45" s="17"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
+      <c r="M45" s="19"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="18"/>
       <c r="Q45" s="17"/>
-      <c r="R45" s="18"/>
+      <c r="R45" s="17"/>
       <c r="S45" s="17"/>
-      <c r="T45" s="17"/>
+      <c r="T45" s="18"/>
       <c r="U45" s="17"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="18"/>
       <c r="X45" s="17"/>
       <c r="Y45" s="18"/>
-      <c r="Z45" s="17"/>
-      <c r="AA45" s="18"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
       <c r="AB45" s="20"/>
       <c r="AC45" s="20"/>
-      <c r="AD45" s="20"/>
-      <c r="AE45" s="20"/>
+      <c r="AD45" s="19"/>
+      <c r="AE45" s="19"/>
       <c r="AF45" s="19"/>
       <c r="AG45" s="19"/>
       <c r="AH45" s="19"/>
@@ -4757,22 +4373,16 @@
       <c r="AO45" s="19"/>
       <c r="AP45" s="19"/>
       <c r="AQ45" s="19"/>
-      <c r="AR45" s="19"/>
-      <c r="AS45" s="19"/>
+      <c r="AR45" s="17"/>
+      <c r="AS45" s="17"/>
       <c r="AT45" s="17"/>
-      <c r="AU45" s="17"/>
+      <c r="AU45" s="21"/>
       <c r="AV45" s="17"/>
-      <c r="AW45" s="21"/>
-      <c r="AX45" s="21"/>
-      <c r="AY45" s="17"/>
-      <c r="AZ45" s="17"/>
-      <c r="BA45" s="17"/>
-      <c r="BB45" s="18"/>
-      <c r="BC45" s="17"/>
-      <c r="BD45" s="18"/>
-      <c r="BE45" s="17"/>
-    </row>
-    <row r="46" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW45" s="17"/>
+      <c r="AX45" s="18"/>
+      <c r="AY45" s="18"/>
+    </row>
+    <row r="46" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -4782,28 +4392,28 @@
       <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="18"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
-      <c r="M46" s="17"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="18"/>
       <c r="Q46" s="17"/>
-      <c r="R46" s="18"/>
+      <c r="R46" s="17"/>
       <c r="S46" s="17"/>
-      <c r="T46" s="17"/>
+      <c r="T46" s="18"/>
       <c r="U46" s="17"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="18"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="18"/>
-      <c r="Z46" s="17"/>
-      <c r="AA46" s="18"/>
+      <c r="Z46" s="20"/>
+      <c r="AA46" s="20"/>
       <c r="AB46" s="20"/>
       <c r="AC46" s="20"/>
-      <c r="AD46" s="20"/>
-      <c r="AE46" s="20"/>
+      <c r="AD46" s="19"/>
+      <c r="AE46" s="19"/>
       <c r="AF46" s="19"/>
       <c r="AG46" s="19"/>
       <c r="AH46" s="19"/>
@@ -4816,22 +4426,16 @@
       <c r="AO46" s="19"/>
       <c r="AP46" s="19"/>
       <c r="AQ46" s="19"/>
-      <c r="AR46" s="19"/>
-      <c r="AS46" s="19"/>
+      <c r="AR46" s="17"/>
+      <c r="AS46" s="17"/>
       <c r="AT46" s="17"/>
-      <c r="AU46" s="17"/>
+      <c r="AU46" s="21"/>
       <c r="AV46" s="17"/>
-      <c r="AW46" s="21"/>
-      <c r="AX46" s="21"/>
-      <c r="AY46" s="17"/>
-      <c r="AZ46" s="17"/>
-      <c r="BA46" s="17"/>
-      <c r="BB46" s="18"/>
-      <c r="BC46" s="17"/>
-      <c r="BD46" s="18"/>
-      <c r="BE46" s="17"/>
-    </row>
-    <row r="47" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW46" s="17"/>
+      <c r="AX46" s="18"/>
+      <c r="AY46" s="18"/>
+    </row>
+    <row r="47" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -4841,28 +4445,28 @@
       <c r="G47" s="17"/>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="J47" s="18"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
+      <c r="M47" s="19"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="18"/>
       <c r="Q47" s="17"/>
-      <c r="R47" s="18"/>
+      <c r="R47" s="17"/>
       <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
+      <c r="T47" s="18"/>
       <c r="U47" s="17"/>
-      <c r="V47" s="18"/>
-      <c r="W47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="18"/>
       <c r="X47" s="17"/>
       <c r="Y47" s="18"/>
-      <c r="Z47" s="17"/>
-      <c r="AA47" s="18"/>
+      <c r="Z47" s="20"/>
+      <c r="AA47" s="20"/>
       <c r="AB47" s="20"/>
       <c r="AC47" s="20"/>
-      <c r="AD47" s="20"/>
-      <c r="AE47" s="20"/>
+      <c r="AD47" s="19"/>
+      <c r="AE47" s="19"/>
       <c r="AF47" s="19"/>
       <c r="AG47" s="19"/>
       <c r="AH47" s="19"/>
@@ -4875,22 +4479,16 @@
       <c r="AO47" s="19"/>
       <c r="AP47" s="19"/>
       <c r="AQ47" s="19"/>
-      <c r="AR47" s="19"/>
-      <c r="AS47" s="19"/>
+      <c r="AR47" s="17"/>
+      <c r="AS47" s="17"/>
       <c r="AT47" s="17"/>
-      <c r="AU47" s="17"/>
+      <c r="AU47" s="21"/>
       <c r="AV47" s="17"/>
-      <c r="AW47" s="21"/>
-      <c r="AX47" s="21"/>
-      <c r="AY47" s="17"/>
-      <c r="AZ47" s="17"/>
-      <c r="BA47" s="17"/>
-      <c r="BB47" s="18"/>
-      <c r="BC47" s="17"/>
-      <c r="BD47" s="18"/>
-      <c r="BE47" s="17"/>
-    </row>
-    <row r="48" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW47" s="17"/>
+      <c r="AX47" s="18"/>
+      <c r="AY47" s="18"/>
+    </row>
+    <row r="48" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
@@ -4900,28 +4498,28 @@
       <c r="G48" s="17"/>
       <c r="H48" s="17"/>
       <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="J48" s="18"/>
       <c r="K48" s="17"/>
       <c r="L48" s="18"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="18"/>
       <c r="Q48" s="17"/>
-      <c r="R48" s="18"/>
+      <c r="R48" s="17"/>
       <c r="S48" s="17"/>
-      <c r="T48" s="17"/>
+      <c r="T48" s="18"/>
       <c r="U48" s="17"/>
-      <c r="V48" s="18"/>
-      <c r="W48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="18"/>
       <c r="X48" s="17"/>
       <c r="Y48" s="18"/>
-      <c r="Z48" s="17"/>
-      <c r="AA48" s="18"/>
+      <c r="Z48" s="20"/>
+      <c r="AA48" s="20"/>
       <c r="AB48" s="20"/>
       <c r="AC48" s="20"/>
-      <c r="AD48" s="20"/>
-      <c r="AE48" s="20"/>
+      <c r="AD48" s="19"/>
+      <c r="AE48" s="19"/>
       <c r="AF48" s="19"/>
       <c r="AG48" s="19"/>
       <c r="AH48" s="19"/>
@@ -4934,22 +4532,16 @@
       <c r="AO48" s="19"/>
       <c r="AP48" s="19"/>
       <c r="AQ48" s="19"/>
-      <c r="AR48" s="19"/>
-      <c r="AS48" s="19"/>
+      <c r="AR48" s="17"/>
+      <c r="AS48" s="17"/>
       <c r="AT48" s="17"/>
-      <c r="AU48" s="17"/>
+      <c r="AU48" s="21"/>
       <c r="AV48" s="17"/>
-      <c r="AW48" s="21"/>
-      <c r="AX48" s="21"/>
-      <c r="AY48" s="17"/>
-      <c r="AZ48" s="17"/>
-      <c r="BA48" s="17"/>
-      <c r="BB48" s="18"/>
-      <c r="BC48" s="17"/>
-      <c r="BD48" s="18"/>
-      <c r="BE48" s="17"/>
-    </row>
-    <row r="49" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW48" s="17"/>
+      <c r="AX48" s="18"/>
+      <c r="AY48" s="18"/>
+    </row>
+    <row r="49" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
@@ -4959,28 +4551,28 @@
       <c r="G49" s="17"/>
       <c r="H49" s="17"/>
       <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="J49" s="18"/>
       <c r="K49" s="17"/>
       <c r="L49" s="18"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
+      <c r="M49" s="19"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="18"/>
       <c r="Q49" s="17"/>
-      <c r="R49" s="18"/>
+      <c r="R49" s="17"/>
       <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
+      <c r="T49" s="18"/>
       <c r="U49" s="17"/>
-      <c r="V49" s="18"/>
-      <c r="W49" s="17"/>
+      <c r="V49" s="17"/>
+      <c r="W49" s="18"/>
       <c r="X49" s="17"/>
       <c r="Y49" s="18"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="18"/>
+      <c r="Z49" s="20"/>
+      <c r="AA49" s="20"/>
       <c r="AB49" s="20"/>
       <c r="AC49" s="20"/>
-      <c r="AD49" s="20"/>
-      <c r="AE49" s="20"/>
+      <c r="AD49" s="19"/>
+      <c r="AE49" s="19"/>
       <c r="AF49" s="19"/>
       <c r="AG49" s="19"/>
       <c r="AH49" s="19"/>
@@ -4993,22 +4585,16 @@
       <c r="AO49" s="19"/>
       <c r="AP49" s="19"/>
       <c r="AQ49" s="19"/>
-      <c r="AR49" s="19"/>
-      <c r="AS49" s="19"/>
+      <c r="AR49" s="17"/>
+      <c r="AS49" s="17"/>
       <c r="AT49" s="17"/>
-      <c r="AU49" s="17"/>
+      <c r="AU49" s="21"/>
       <c r="AV49" s="17"/>
-      <c r="AW49" s="21"/>
-      <c r="AX49" s="21"/>
-      <c r="AY49" s="17"/>
-      <c r="AZ49" s="17"/>
-      <c r="BA49" s="17"/>
-      <c r="BB49" s="18"/>
-      <c r="BC49" s="17"/>
-      <c r="BD49" s="18"/>
-      <c r="BE49" s="17"/>
-    </row>
-    <row r="50" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW49" s="17"/>
+      <c r="AX49" s="18"/>
+      <c r="AY49" s="18"/>
+    </row>
+    <row r="50" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
@@ -5018,28 +4604,28 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
       <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="J50" s="18"/>
       <c r="K50" s="17"/>
       <c r="L50" s="18"/>
-      <c r="M50" s="17"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="18"/>
       <c r="Q50" s="17"/>
-      <c r="R50" s="18"/>
+      <c r="R50" s="17"/>
       <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
+      <c r="T50" s="18"/>
       <c r="U50" s="17"/>
-      <c r="V50" s="18"/>
-      <c r="W50" s="17"/>
+      <c r="V50" s="17"/>
+      <c r="W50" s="18"/>
       <c r="X50" s="17"/>
       <c r="Y50" s="18"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="18"/>
+      <c r="Z50" s="20"/>
+      <c r="AA50" s="20"/>
       <c r="AB50" s="20"/>
       <c r="AC50" s="20"/>
-      <c r="AD50" s="20"/>
-      <c r="AE50" s="20"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
       <c r="AF50" s="19"/>
       <c r="AG50" s="19"/>
       <c r="AH50" s="19"/>
@@ -5052,22 +4638,16 @@
       <c r="AO50" s="19"/>
       <c r="AP50" s="19"/>
       <c r="AQ50" s="19"/>
-      <c r="AR50" s="19"/>
-      <c r="AS50" s="19"/>
+      <c r="AR50" s="17"/>
+      <c r="AS50" s="17"/>
       <c r="AT50" s="17"/>
-      <c r="AU50" s="17"/>
+      <c r="AU50" s="21"/>
       <c r="AV50" s="17"/>
-      <c r="AW50" s="21"/>
-      <c r="AX50" s="21"/>
-      <c r="AY50" s="17"/>
-      <c r="AZ50" s="17"/>
-      <c r="BA50" s="17"/>
-      <c r="BB50" s="18"/>
-      <c r="BC50" s="17"/>
-      <c r="BD50" s="18"/>
-      <c r="BE50" s="17"/>
-    </row>
-    <row r="51" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW50" s="17"/>
+      <c r="AX50" s="18"/>
+      <c r="AY50" s="18"/>
+    </row>
+    <row r="51" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -5077,28 +4657,28 @@
       <c r="G51" s="17"/>
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="J51" s="18"/>
       <c r="K51" s="17"/>
       <c r="L51" s="18"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="18"/>
       <c r="Q51" s="17"/>
-      <c r="R51" s="18"/>
+      <c r="R51" s="17"/>
       <c r="S51" s="17"/>
-      <c r="T51" s="17"/>
+      <c r="T51" s="18"/>
       <c r="U51" s="17"/>
-      <c r="V51" s="18"/>
-      <c r="W51" s="17"/>
+      <c r="V51" s="17"/>
+      <c r="W51" s="18"/>
       <c r="X51" s="17"/>
       <c r="Y51" s="18"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="18"/>
+      <c r="Z51" s="20"/>
+      <c r="AA51" s="20"/>
       <c r="AB51" s="20"/>
       <c r="AC51" s="20"/>
-      <c r="AD51" s="20"/>
-      <c r="AE51" s="20"/>
+      <c r="AD51" s="19"/>
+      <c r="AE51" s="19"/>
       <c r="AF51" s="19"/>
       <c r="AG51" s="19"/>
       <c r="AH51" s="19"/>
@@ -5111,22 +4691,16 @@
       <c r="AO51" s="19"/>
       <c r="AP51" s="19"/>
       <c r="AQ51" s="19"/>
-      <c r="AR51" s="19"/>
-      <c r="AS51" s="19"/>
+      <c r="AR51" s="17"/>
+      <c r="AS51" s="17"/>
       <c r="AT51" s="17"/>
-      <c r="AU51" s="17"/>
+      <c r="AU51" s="21"/>
       <c r="AV51" s="17"/>
-      <c r="AW51" s="21"/>
-      <c r="AX51" s="21"/>
-      <c r="AY51" s="17"/>
-      <c r="AZ51" s="17"/>
-      <c r="BA51" s="17"/>
-      <c r="BB51" s="18"/>
-      <c r="BC51" s="17"/>
-      <c r="BD51" s="18"/>
-      <c r="BE51" s="17"/>
-    </row>
-    <row r="52" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW51" s="17"/>
+      <c r="AX51" s="18"/>
+      <c r="AY51" s="18"/>
+    </row>
+    <row r="52" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
@@ -5136,28 +4710,28 @@
       <c r="G52" s="17"/>
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="J52" s="18"/>
       <c r="K52" s="17"/>
       <c r="L52" s="18"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="18"/>
       <c r="Q52" s="17"/>
-      <c r="R52" s="18"/>
+      <c r="R52" s="17"/>
       <c r="S52" s="17"/>
-      <c r="T52" s="17"/>
+      <c r="T52" s="18"/>
       <c r="U52" s="17"/>
-      <c r="V52" s="18"/>
-      <c r="W52" s="17"/>
+      <c r="V52" s="17"/>
+      <c r="W52" s="18"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="18"/>
-      <c r="Z52" s="17"/>
-      <c r="AA52" s="18"/>
+      <c r="Z52" s="20"/>
+      <c r="AA52" s="20"/>
       <c r="AB52" s="20"/>
       <c r="AC52" s="20"/>
-      <c r="AD52" s="20"/>
-      <c r="AE52" s="20"/>
+      <c r="AD52" s="19"/>
+      <c r="AE52" s="19"/>
       <c r="AF52" s="19"/>
       <c r="AG52" s="19"/>
       <c r="AH52" s="19"/>
@@ -5170,22 +4744,16 @@
       <c r="AO52" s="19"/>
       <c r="AP52" s="19"/>
       <c r="AQ52" s="19"/>
-      <c r="AR52" s="19"/>
-      <c r="AS52" s="19"/>
+      <c r="AR52" s="17"/>
+      <c r="AS52" s="17"/>
       <c r="AT52" s="17"/>
-      <c r="AU52" s="17"/>
+      <c r="AU52" s="21"/>
       <c r="AV52" s="17"/>
-      <c r="AW52" s="21"/>
-      <c r="AX52" s="21"/>
-      <c r="AY52" s="17"/>
-      <c r="AZ52" s="17"/>
-      <c r="BA52" s="17"/>
-      <c r="BB52" s="18"/>
-      <c r="BC52" s="17"/>
-      <c r="BD52" s="18"/>
-      <c r="BE52" s="17"/>
-    </row>
-    <row r="53" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW52" s="17"/>
+      <c r="AX52" s="18"/>
+      <c r="AY52" s="18"/>
+    </row>
+    <row r="53" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -5195,28 +4763,28 @@
       <c r="G53" s="17"/>
       <c r="H53" s="17"/>
       <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="J53" s="18"/>
       <c r="K53" s="17"/>
       <c r="L53" s="18"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="18"/>
       <c r="Q53" s="17"/>
-      <c r="R53" s="18"/>
+      <c r="R53" s="17"/>
       <c r="S53" s="17"/>
-      <c r="T53" s="17"/>
+      <c r="T53" s="18"/>
       <c r="U53" s="17"/>
-      <c r="V53" s="18"/>
-      <c r="W53" s="17"/>
+      <c r="V53" s="17"/>
+      <c r="W53" s="18"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="18"/>
-      <c r="Z53" s="17"/>
-      <c r="AA53" s="18"/>
+      <c r="Z53" s="20"/>
+      <c r="AA53" s="20"/>
       <c r="AB53" s="20"/>
       <c r="AC53" s="20"/>
-      <c r="AD53" s="20"/>
-      <c r="AE53" s="20"/>
+      <c r="AD53" s="19"/>
+      <c r="AE53" s="19"/>
       <c r="AF53" s="19"/>
       <c r="AG53" s="19"/>
       <c r="AH53" s="19"/>
@@ -5229,22 +4797,16 @@
       <c r="AO53" s="19"/>
       <c r="AP53" s="19"/>
       <c r="AQ53" s="19"/>
-      <c r="AR53" s="19"/>
-      <c r="AS53" s="19"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="17"/>
       <c r="AT53" s="17"/>
-      <c r="AU53" s="17"/>
+      <c r="AU53" s="21"/>
       <c r="AV53" s="17"/>
-      <c r="AW53" s="21"/>
-      <c r="AX53" s="21"/>
-      <c r="AY53" s="17"/>
-      <c r="AZ53" s="17"/>
-      <c r="BA53" s="17"/>
-      <c r="BB53" s="18"/>
-      <c r="BC53" s="17"/>
-      <c r="BD53" s="18"/>
-      <c r="BE53" s="17"/>
-    </row>
-    <row r="54" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW53" s="17"/>
+      <c r="AX53" s="18"/>
+      <c r="AY53" s="18"/>
+    </row>
+    <row r="54" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -5254,28 +4816,28 @@
       <c r="G54" s="17"/>
       <c r="H54" s="17"/>
       <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="J54" s="18"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
+      <c r="M54" s="19"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="18"/>
       <c r="Q54" s="17"/>
-      <c r="R54" s="18"/>
+      <c r="R54" s="17"/>
       <c r="S54" s="17"/>
-      <c r="T54" s="17"/>
+      <c r="T54" s="18"/>
       <c r="U54" s="17"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="17"/>
+      <c r="V54" s="17"/>
+      <c r="W54" s="18"/>
       <c r="X54" s="17"/>
       <c r="Y54" s="18"/>
-      <c r="Z54" s="17"/>
-      <c r="AA54" s="18"/>
+      <c r="Z54" s="20"/>
+      <c r="AA54" s="20"/>
       <c r="AB54" s="20"/>
       <c r="AC54" s="20"/>
-      <c r="AD54" s="20"/>
-      <c r="AE54" s="20"/>
+      <c r="AD54" s="19"/>
+      <c r="AE54" s="19"/>
       <c r="AF54" s="19"/>
       <c r="AG54" s="19"/>
       <c r="AH54" s="19"/>
@@ -5288,22 +4850,16 @@
       <c r="AO54" s="19"/>
       <c r="AP54" s="19"/>
       <c r="AQ54" s="19"/>
-      <c r="AR54" s="19"/>
-      <c r="AS54" s="19"/>
+      <c r="AR54" s="17"/>
+      <c r="AS54" s="17"/>
       <c r="AT54" s="17"/>
-      <c r="AU54" s="17"/>
+      <c r="AU54" s="21"/>
       <c r="AV54" s="17"/>
-      <c r="AW54" s="21"/>
-      <c r="AX54" s="21"/>
-      <c r="AY54" s="17"/>
-      <c r="AZ54" s="17"/>
-      <c r="BA54" s="17"/>
-      <c r="BB54" s="18"/>
-      <c r="BC54" s="17"/>
-      <c r="BD54" s="18"/>
-      <c r="BE54" s="17"/>
-    </row>
-    <row r="55" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW54" s="17"/>
+      <c r="AX54" s="18"/>
+      <c r="AY54" s="18"/>
+    </row>
+    <row r="55" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -5313,28 +4869,28 @@
       <c r="G55" s="17"/>
       <c r="H55" s="17"/>
       <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="J55" s="18"/>
       <c r="K55" s="17"/>
       <c r="L55" s="18"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="17"/>
+      <c r="P55" s="18"/>
       <c r="Q55" s="17"/>
-      <c r="R55" s="18"/>
+      <c r="R55" s="17"/>
       <c r="S55" s="17"/>
-      <c r="T55" s="17"/>
+      <c r="T55" s="18"/>
       <c r="U55" s="17"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="17"/>
+      <c r="V55" s="17"/>
+      <c r="W55" s="18"/>
       <c r="X55" s="17"/>
       <c r="Y55" s="18"/>
-      <c r="Z55" s="17"/>
-      <c r="AA55" s="18"/>
+      <c r="Z55" s="20"/>
+      <c r="AA55" s="20"/>
       <c r="AB55" s="20"/>
       <c r="AC55" s="20"/>
-      <c r="AD55" s="20"/>
-      <c r="AE55" s="20"/>
+      <c r="AD55" s="19"/>
+      <c r="AE55" s="19"/>
       <c r="AF55" s="19"/>
       <c r="AG55" s="19"/>
       <c r="AH55" s="19"/>
@@ -5347,22 +4903,16 @@
       <c r="AO55" s="19"/>
       <c r="AP55" s="19"/>
       <c r="AQ55" s="19"/>
-      <c r="AR55" s="19"/>
-      <c r="AS55" s="19"/>
+      <c r="AR55" s="17"/>
+      <c r="AS55" s="17"/>
       <c r="AT55" s="17"/>
-      <c r="AU55" s="17"/>
+      <c r="AU55" s="21"/>
       <c r="AV55" s="17"/>
-      <c r="AW55" s="21"/>
-      <c r="AX55" s="21"/>
-      <c r="AY55" s="17"/>
-      <c r="AZ55" s="17"/>
-      <c r="BA55" s="17"/>
-      <c r="BB55" s="18"/>
-      <c r="BC55" s="17"/>
-      <c r="BD55" s="18"/>
-      <c r="BE55" s="17"/>
-    </row>
-    <row r="56" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW55" s="17"/>
+      <c r="AX55" s="18"/>
+      <c r="AY55" s="18"/>
+    </row>
+    <row r="56" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
@@ -5372,28 +4922,28 @@
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="J56" s="18"/>
       <c r="K56" s="17"/>
       <c r="L56" s="18"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="18"/>
       <c r="Q56" s="17"/>
-      <c r="R56" s="18"/>
+      <c r="R56" s="17"/>
       <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
+      <c r="T56" s="18"/>
       <c r="U56" s="17"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="18"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="18"/>
-      <c r="Z56" s="17"/>
-      <c r="AA56" s="18"/>
+      <c r="Z56" s="20"/>
+      <c r="AA56" s="20"/>
       <c r="AB56" s="20"/>
       <c r="AC56" s="20"/>
-      <c r="AD56" s="20"/>
-      <c r="AE56" s="20"/>
+      <c r="AD56" s="19"/>
+      <c r="AE56" s="19"/>
       <c r="AF56" s="19"/>
       <c r="AG56" s="19"/>
       <c r="AH56" s="19"/>
@@ -5406,22 +4956,16 @@
       <c r="AO56" s="19"/>
       <c r="AP56" s="19"/>
       <c r="AQ56" s="19"/>
-      <c r="AR56" s="19"/>
-      <c r="AS56" s="19"/>
+      <c r="AR56" s="17"/>
+      <c r="AS56" s="17"/>
       <c r="AT56" s="17"/>
-      <c r="AU56" s="17"/>
+      <c r="AU56" s="21"/>
       <c r="AV56" s="17"/>
-      <c r="AW56" s="21"/>
-      <c r="AX56" s="21"/>
-      <c r="AY56" s="17"/>
-      <c r="AZ56" s="17"/>
-      <c r="BA56" s="17"/>
-      <c r="BB56" s="18"/>
-      <c r="BC56" s="17"/>
-      <c r="BD56" s="18"/>
-      <c r="BE56" s="17"/>
-    </row>
-    <row r="57" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW56" s="17"/>
+      <c r="AX56" s="18"/>
+      <c r="AY56" s="18"/>
+    </row>
+    <row r="57" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
@@ -5431,28 +4975,28 @@
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="J57" s="18"/>
       <c r="K57" s="17"/>
       <c r="L57" s="18"/>
-      <c r="M57" s="17"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="17"/>
+      <c r="P57" s="18"/>
       <c r="Q57" s="17"/>
-      <c r="R57" s="18"/>
+      <c r="R57" s="17"/>
       <c r="S57" s="17"/>
-      <c r="T57" s="17"/>
+      <c r="T57" s="18"/>
       <c r="U57" s="17"/>
-      <c r="V57" s="18"/>
-      <c r="W57" s="17"/>
+      <c r="V57" s="17"/>
+      <c r="W57" s="18"/>
       <c r="X57" s="17"/>
       <c r="Y57" s="18"/>
-      <c r="Z57" s="17"/>
-      <c r="AA57" s="18"/>
+      <c r="Z57" s="20"/>
+      <c r="AA57" s="20"/>
       <c r="AB57" s="20"/>
       <c r="AC57" s="20"/>
-      <c r="AD57" s="20"/>
-      <c r="AE57" s="20"/>
+      <c r="AD57" s="19"/>
+      <c r="AE57" s="19"/>
       <c r="AF57" s="19"/>
       <c r="AG57" s="19"/>
       <c r="AH57" s="19"/>
@@ -5465,22 +5009,16 @@
       <c r="AO57" s="19"/>
       <c r="AP57" s="19"/>
       <c r="AQ57" s="19"/>
-      <c r="AR57" s="19"/>
-      <c r="AS57" s="19"/>
+      <c r="AR57" s="17"/>
+      <c r="AS57" s="17"/>
       <c r="AT57" s="17"/>
-      <c r="AU57" s="17"/>
+      <c r="AU57" s="21"/>
       <c r="AV57" s="17"/>
-      <c r="AW57" s="21"/>
-      <c r="AX57" s="21"/>
-      <c r="AY57" s="17"/>
-      <c r="AZ57" s="17"/>
-      <c r="BA57" s="17"/>
-      <c r="BB57" s="18"/>
-      <c r="BC57" s="17"/>
-      <c r="BD57" s="18"/>
-      <c r="BE57" s="17"/>
-    </row>
-    <row r="58" spans="1:57" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AW57" s="17"/>
+      <c r="AX57" s="18"/>
+      <c r="AY57" s="18"/>
+    </row>
+    <row r="58" spans="1:51" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -5490,28 +5028,28 @@
       <c r="G58" s="17"/>
       <c r="H58" s="17"/>
       <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="J58" s="18"/>
       <c r="K58" s="17"/>
       <c r="L58" s="18"/>
-      <c r="M58" s="17"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="18"/>
       <c r="Q58" s="17"/>
-      <c r="R58" s="18"/>
+      <c r="R58" s="17"/>
       <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
+      <c r="T58" s="18"/>
       <c r="U58" s="17"/>
-      <c r="V58" s="18"/>
-      <c r="W58" s="17"/>
+      <c r="V58" s="17"/>
+      <c r="W58" s="18"/>
       <c r="X58" s="17"/>
       <c r="Y58" s="18"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="18"/>
+      <c r="Z58" s="20"/>
+      <c r="AA58" s="20"/>
       <c r="AB58" s="20"/>
       <c r="AC58" s="20"/>
-      <c r="AD58" s="20"/>
-      <c r="AE58" s="20"/>
+      <c r="AD58" s="19"/>
+      <c r="AE58" s="19"/>
       <c r="AF58" s="19"/>
       <c r="AG58" s="19"/>
       <c r="AH58" s="19"/>
@@ -5524,20 +5062,14 @@
       <c r="AO58" s="19"/>
       <c r="AP58" s="19"/>
       <c r="AQ58" s="19"/>
-      <c r="AR58" s="19"/>
-      <c r="AS58" s="19"/>
+      <c r="AR58" s="17"/>
+      <c r="AS58" s="17"/>
       <c r="AT58" s="17"/>
-      <c r="AU58" s="17"/>
+      <c r="AU58" s="21"/>
       <c r="AV58" s="17"/>
-      <c r="AW58" s="21"/>
-      <c r="AX58" s="21"/>
-      <c r="AY58" s="17"/>
-      <c r="AZ58" s="17"/>
-      <c r="BA58" s="17"/>
-      <c r="BB58" s="18"/>
-      <c r="BC58" s="17"/>
-      <c r="BD58" s="18"/>
-      <c r="BE58" s="17"/>
+      <c r="AW58" s="17"/>
+      <c r="AX58" s="18"/>
+      <c r="AY58" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5549,7 +5081,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:I6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5560,10 +5092,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>57</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="C1" s="14"/>
       <c r="D1" s="16"/>
@@ -5575,7 +5107,7 @@
     </row>
     <row r="2" spans="1:9" ht="40" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="16">
         <f>1265+15</f>
@@ -5591,7 +5123,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B3" s="16">
         <v>25</v>
@@ -5606,7 +5138,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B4" s="16">
         <v>40</v>
@@ -5621,7 +5153,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B5" s="16">
         <v>30</v>
@@ -5636,7 +5168,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B6" s="16">
         <v>1.5</v>
@@ -5662,7 +5194,7 @@
     </row>
     <row r="8" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5675,14 +5207,14 @@
     </row>
     <row r="9" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B9" s="16">
         <v>160</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="16" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E9" s="16"/>
       <c r="F9" s="16"/>
@@ -5692,14 +5224,14 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B10" s="16">
         <v>208</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -5709,14 +5241,14 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B11" s="16">
         <v>1510</v>
       </c>
       <c r="C11" s="16"/>
       <c r="D11" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="16"/>
@@ -5726,14 +5258,14 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B12" s="16">
         <v>190</v>
       </c>
       <c r="C12" s="16"/>
       <c r="D12" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
@@ -5742,191 +5274,191 @@
       <c r="I12" s="16"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" s="53">
+        <v>42.2</v>
+      </c>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="54">
+        <v>148.1</v>
+      </c>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="54">
+        <v>13</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="54">
-        <v>42.2</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54" t="s">
+      <c r="B16" s="55">
+        <v>1.9</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="55" t="s">
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B14" s="55">
-        <v>148.1</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55" t="s">
+      <c r="B17" s="53">
+        <v>4.8</v>
+      </c>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="55" t="s">
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="55">
-        <v>13</v>
-      </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55" t="s">
+      <c r="B18" s="54">
+        <v>7.8</v>
+      </c>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="56" t="s">
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="56">
-        <v>1.9</v>
-      </c>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56" t="s">
+      <c r="B19" s="54">
+        <v>3</v>
+      </c>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="54" t="s">
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="54">
-        <v>4.8</v>
-      </c>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54" t="s">
+      <c r="B20" s="54">
+        <v>0.2</v>
+      </c>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="55" t="s">
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="53" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="55">
-        <v>7.8</v>
-      </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55" t="s">
+      <c r="B21" s="53">
+        <v>1</v>
+      </c>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="55" t="s">
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="55">
+      <c r="B22" s="54">
         <v>3</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55" t="s">
+      <c r="C22" s="54"/>
+      <c r="D22" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="55" t="s">
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="55">
-        <v>0.2</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55" t="s">
+      <c r="B23" s="54">
+        <v>0</v>
+      </c>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54" t="s">
         <v>94</v>
       </c>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="B21" s="54">
-        <v>1</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B22" s="55">
-        <v>3</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="55">
-        <v>0</v>
-      </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
@@ -5941,7 +5473,7 @@
     </row>
     <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -5954,14 +5486,14 @@
     </row>
     <row r="26" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B26" s="16">
         <v>300000</v>
       </c>
       <c r="C26" s="16"/>
       <c r="D26" s="16" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -5970,117 +5502,117 @@
       <c r="I26" s="16"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B27" s="53">
+        <v>20000</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="56">
+        <v>1</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="57">
+        <v>0</v>
+      </c>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="53"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="54">
-        <v>20000</v>
-      </c>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54" t="s">
+      <c r="B30" s="58">
+        <v>5</v>
+      </c>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="56" t="s">
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="57">
-        <v>1</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="56" t="s">
+      <c r="B31" s="58">
+        <v>1.5</v>
+      </c>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="B29" s="58">
-        <v>0</v>
-      </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54" t="s">
+      <c r="B32" s="53">
+        <v>5000</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="59">
-        <v>5</v>
-      </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="55" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="59">
-        <v>1.5</v>
-      </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="B32" s="54">
-        <v>5000</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B33" s="16">
         <v>30000</v>
       </c>
       <c r="C33" s="16"/>
       <c r="D33" s="16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -6090,14 +5622,14 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B34" s="16">
         <v>2000</v>
       </c>
       <c r="C34" s="16"/>
-      <c r="D34" s="55" t="s">
-        <v>113</v>
+      <c r="D34" s="54" t="s">
+        <v>107</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -6106,32 +5638,32 @@
       <c r="I34" s="16"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="54">
+      <c r="A35" s="53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="53">
         <v>10</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="53"/>
+      <c r="H35" s="53"/>
+      <c r="I35" s="53"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B36" s="16">
         <v>2000</v>
       </c>
       <c r="C36" s="16"/>
       <c r="D36" s="16" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -6141,14 +5673,14 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="60">
+        <v>117</v>
+      </c>
+      <c r="B37" s="59">
         <v>1</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="16"/>
@@ -6158,14 +5690,14 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B38" s="60">
+        <v>119</v>
+      </c>
+      <c r="B38" s="59">
         <v>0.2</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="16" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E38" s="16"/>
       <c r="F38" s="16"/>
@@ -6175,14 +5707,14 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="60">
+        <v>121</v>
+      </c>
+      <c r="B39" s="59">
         <v>1000</v>
       </c>
       <c r="C39" s="16"/>
       <c r="D39" s="16" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
@@ -6203,7 +5735,7 @@
     </row>
     <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B41" s="14"/>
       <c r="C41" s="14"/>
@@ -6215,32 +5747,32 @@
       <c r="I41" s="16"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="54">
-        <v>0</v>
-      </c>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="A42" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="53">
+        <v>0</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="53"/>
+      <c r="F42" s="53"/>
+      <c r="G42" s="53"/>
+      <c r="H42" s="53"/>
+      <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B43" s="16">
         <v>2.8</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" s="16" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
@@ -6250,14 +5782,14 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B44" s="60">
+        <v>128</v>
+      </c>
+      <c r="B44" s="59">
         <v>32000</v>
       </c>
       <c r="C44" s="16"/>
       <c r="D44" s="16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E44" s="16"/>
       <c r="F44" s="16"/>
